--- a/raw_data/DOT-USD_4h_process.xlsx
+++ b/raw_data/DOT-USD_4h_process.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="196">
   <si>
     <t>Open</t>
   </si>
@@ -58,129 +58,6 @@
     <t>sell_rsi_9</t>
   </si>
   <si>
-    <t>2023-12-27 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-27 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-28 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-29 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-30 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2023-12-31 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-01 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 09:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 13:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 17:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-02 21:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 01:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 05:00:00-03:00</t>
-  </si>
-  <si>
-    <t>2024-01-03 09:00:00-03:00</t>
-  </si>
-  <si>
     <t>2024-01-03 13:00:00-03:00</t>
   </si>
   <si>
@@ -599,6 +476,129 @@
   </si>
   <si>
     <t>2024-01-26 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-26 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-27 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-28 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-29 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-30 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-01-31 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 13:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 17:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-01 21:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 01:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 05:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 09:00:00-03:00</t>
+  </si>
+  <si>
+    <t>2024-02-02 13:00:00-03:00</t>
   </si>
   <si>
     <t>yes</t>
@@ -1014,19 +1014,19 @@
         <v>14</v>
       </c>
       <c r="B2">
-        <v>8.828598022460938</v>
+        <v>7.740234375</v>
       </c>
       <c r="C2">
-        <v>8.862331390380859</v>
+        <v>7.774962425231934</v>
       </c>
       <c r="D2">
-        <v>8.637574195861816</v>
+        <v>7.617019653320312</v>
       </c>
       <c r="E2">
-        <v>8.702571868896484</v>
+        <v>7.710544109344482</v>
       </c>
       <c r="F2">
-        <v>2042560</v>
+        <v>18500160</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -1034,19 +1034,19 @@
         <v>15</v>
       </c>
       <c r="B3">
-        <v>8.70330810546875</v>
+        <v>7.711027145385742</v>
       </c>
       <c r="C3">
-        <v>8.899014472961426</v>
+        <v>7.807874202728271</v>
       </c>
       <c r="D3">
-        <v>8.585274696350098</v>
+        <v>7.616108894348144</v>
       </c>
       <c r="E3">
-        <v>8.586352348327637</v>
+        <v>7.641739368438721</v>
       </c>
       <c r="F3">
-        <v>21089728</v>
+        <v>5511360</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -1054,19 +1054,19 @@
         <v>16</v>
       </c>
       <c r="B4">
-        <v>8.584850311279297</v>
+        <v>7.641465187072754</v>
       </c>
       <c r="C4">
-        <v>8.686795234680176</v>
+        <v>7.690935611724853</v>
       </c>
       <c r="D4">
-        <v>8.474496841430664</v>
+        <v>7.537779808044434</v>
       </c>
       <c r="E4">
-        <v>8.558806419372559</v>
+        <v>7.651378154754639</v>
       </c>
       <c r="F4">
-        <v>15435296</v>
+        <v>13126976</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -1074,19 +1074,19 @@
         <v>17</v>
       </c>
       <c r="B5">
-        <v>8.558994293212891</v>
+        <v>7.65169095993042</v>
       </c>
       <c r="C5">
-        <v>8.745281219482422</v>
+        <v>7.746047973632812</v>
       </c>
       <c r="D5">
-        <v>8.551460266113281</v>
+        <v>7.628476142883301</v>
       </c>
       <c r="E5">
-        <v>8.694339752197266</v>
+        <v>7.628476142883301</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>5232960</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -1094,19 +1094,19 @@
         <v>18</v>
       </c>
       <c r="B6">
-        <v>8.694789886474609</v>
+        <v>7.621276378631592</v>
       </c>
       <c r="C6">
-        <v>8.706503868103027</v>
+        <v>7.707564353942871</v>
       </c>
       <c r="D6">
-        <v>8.313275337219238</v>
+        <v>7.554222106933594</v>
       </c>
       <c r="E6">
-        <v>8.37431526184082</v>
+        <v>7.677830696105957</v>
       </c>
       <c r="F6">
-        <v>29078688</v>
+        <v>7968128</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -1114,16 +1114,16 @@
         <v>19</v>
       </c>
       <c r="B7">
-        <v>8.373970031738281</v>
+        <v>7.677067756652832</v>
       </c>
       <c r="C7">
-        <v>8.486081123352051</v>
+        <v>7.934145927429199</v>
       </c>
       <c r="D7">
-        <v>8.358371734619141</v>
+        <v>7.655525207519531</v>
       </c>
       <c r="E7">
-        <v>8.452046394348145</v>
+        <v>7.890954494476318</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1134,16 +1134,16 @@
         <v>20</v>
       </c>
       <c r="B8">
-        <v>8.451748847961426</v>
+        <v>7.891368389129639</v>
       </c>
       <c r="C8">
-        <v>8.501106262207031</v>
+        <v>7.959010601043701</v>
       </c>
       <c r="D8">
-        <v>8.336947441101074</v>
+        <v>7.810541152954102</v>
       </c>
       <c r="E8">
-        <v>8.450101852416992</v>
+        <v>7.896371364593506</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -1154,19 +1154,19 @@
         <v>21</v>
       </c>
       <c r="B9">
-        <v>8.450277328491211</v>
+        <v>7.896811008453369</v>
       </c>
       <c r="C9">
-        <v>8.507254600524902</v>
+        <v>7.987429141998291</v>
       </c>
       <c r="D9">
-        <v>8.185845375061035</v>
+        <v>7.84773063659668</v>
       </c>
       <c r="E9">
-        <v>8.451915740966797</v>
+        <v>7.881442546844482</v>
       </c>
       <c r="F9">
-        <v>14242144</v>
+        <v>4670336</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -1174,19 +1174,19 @@
         <v>22</v>
       </c>
       <c r="B10">
-        <v>8.451210975646973</v>
+        <v>7.881258487701416</v>
       </c>
       <c r="C10">
-        <v>8.478484153747559</v>
+        <v>7.945945739746094</v>
       </c>
       <c r="D10">
-        <v>8.31862735748291</v>
+        <v>7.656022071838379</v>
       </c>
       <c r="E10">
-        <v>8.31862735748291</v>
+        <v>7.708755493164062</v>
       </c>
       <c r="F10">
-        <v>451712</v>
+        <v>27042656</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -1194,22 +1194,22 @@
         <v>23</v>
       </c>
       <c r="B11">
-        <v>8.319618225097656</v>
+        <v>7.709463119506836</v>
       </c>
       <c r="C11">
-        <v>8.615120887756348</v>
+        <v>7.738072395324707</v>
       </c>
       <c r="D11">
-        <v>8.319618225097656</v>
+        <v>7.64279842376709</v>
       </c>
       <c r="E11">
-        <v>8.586644172668457</v>
+        <v>7.650001049041748</v>
       </c>
       <c r="F11">
-        <v>26138112</v>
+        <v>5154528</v>
       </c>
       <c r="L11">
-        <v>52.0295558179979</v>
+        <v>39.12165278420054</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -1217,22 +1217,25 @@
         <v>24</v>
       </c>
       <c r="B12">
-        <v>8.584961891174316</v>
+        <v>7.645634174346924</v>
       </c>
       <c r="C12">
-        <v>8.677585601806641</v>
+        <v>7.670877933502197</v>
       </c>
       <c r="D12">
-        <v>8.359643936157227</v>
+        <v>7.471737861633301</v>
       </c>
       <c r="E12">
-        <v>8.361568450927734</v>
+        <v>7.471737861633301</v>
       </c>
       <c r="F12">
-        <v>7815424</v>
+        <v>8670816</v>
       </c>
       <c r="L12">
-        <v>38.76027756005092</v>
+        <v>26.69145119278124</v>
+      </c>
+      <c r="N12" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -1240,22 +1243,25 @@
         <v>25</v>
       </c>
       <c r="B13">
-        <v>8.364965438842773</v>
+        <v>7.470725059509277</v>
       </c>
       <c r="C13">
-        <v>8.396971702575684</v>
+        <v>7.531451225280762</v>
       </c>
       <c r="D13">
-        <v>8.199611663818359</v>
+        <v>7.29517126083374</v>
       </c>
       <c r="E13">
-        <v>8.285305023193359</v>
+        <v>7.340150356292725</v>
       </c>
       <c r="F13">
-        <v>36094016</v>
+        <v>11061472</v>
       </c>
       <c r="L13">
-        <v>35.32602560155396</v>
+        <v>21.11906534947151</v>
+      </c>
+      <c r="N13" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -1263,22 +1269,25 @@
         <v>26</v>
       </c>
       <c r="B14">
-        <v>8.284570693969727</v>
+        <v>7.351517200469971</v>
       </c>
       <c r="C14">
-        <v>8.291794776916504</v>
+        <v>7.384527683258057</v>
       </c>
       <c r="D14">
-        <v>8.135847091674805</v>
+        <v>7.24633264541626</v>
       </c>
       <c r="E14">
-        <v>8.291794776916504</v>
+        <v>7.318467617034912</v>
       </c>
       <c r="F14">
-        <v>14341760</v>
+        <v>8995968</v>
       </c>
       <c r="L14">
-        <v>35.86999065159323</v>
+        <v>20.3321913451625</v>
+      </c>
+      <c r="N14" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1286,22 +1295,22 @@
         <v>27</v>
       </c>
       <c r="B15">
-        <v>8.292731285095215</v>
+        <v>7.317039012908935</v>
       </c>
       <c r="C15">
-        <v>8.431007385253906</v>
+        <v>7.445416450500488</v>
       </c>
       <c r="D15">
-        <v>8.285423278808594</v>
+        <v>7.312897205352783</v>
       </c>
       <c r="E15">
-        <v>8.382972717285156</v>
+        <v>7.445416450500488</v>
       </c>
       <c r="F15">
-        <v>0</v>
+        <v>1382080</v>
       </c>
       <c r="L15">
-        <v>43.39505018500667</v>
+        <v>36.03101332356935</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1309,5745 +1318,5721 @@
         <v>28</v>
       </c>
       <c r="B16">
-        <v>8.38131046295166</v>
+        <v>7.445598125457764</v>
       </c>
       <c r="C16">
-        <v>8.474199295043945</v>
+        <v>7.448601245880127</v>
       </c>
       <c r="D16">
-        <v>8.32481575012207</v>
+        <v>7.312576770782471</v>
       </c>
       <c r="E16">
-        <v>8.32481575012207</v>
+        <v>7.313708305358887</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>40.02494199430271</v>
+        <v>29.293597596321</v>
       </c>
       <c r="M16">
-        <v>39.29421458263775</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>30.59017143266358</v>
+      </c>
+      <c r="N16" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B17">
-        <v>8.324773788452148</v>
+        <v>7.313854217529297</v>
       </c>
       <c r="C17">
-        <v>8.337481498718262</v>
+        <v>7.335461139678955</v>
       </c>
       <c r="D17">
-        <v>8.13432788848877</v>
+        <v>6.987271785736084</v>
       </c>
       <c r="E17">
-        <v>8.208027839660645</v>
+        <v>7.112722396850586</v>
       </c>
       <c r="F17">
-        <v>0</v>
+        <v>21903456</v>
       </c>
       <c r="L17">
-        <v>34.05075216267115</v>
+        <v>22.17510481196891</v>
       </c>
       <c r="M17">
-        <v>34.73206865397495</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>24.33807644891691</v>
+      </c>
+      <c r="N17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B18">
-        <v>8.207865715026855</v>
+        <v>7.113919734954834</v>
       </c>
       <c r="C18">
-        <v>8.37254524230957</v>
+        <v>7.212947368621826</v>
       </c>
       <c r="D18">
-        <v>8.199339866638184</v>
+        <v>7.096461296081543</v>
       </c>
       <c r="E18">
-        <v>8.37254524230957</v>
+        <v>7.205686092376709</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>46.66654395522477</v>
+        <v>30.9113057636017</v>
       </c>
       <c r="M18">
-        <v>44.5063051254325</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>31.32921811281829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B19">
-        <v>8.373351097106934</v>
+        <v>7.20592212677002</v>
       </c>
       <c r="C19">
-        <v>8.391670227050781</v>
+        <v>7.265536785125732</v>
       </c>
       <c r="D19">
-        <v>8.294024467468262</v>
+        <v>7.130081653594971</v>
       </c>
       <c r="E19">
-        <v>8.312972068786621</v>
+        <v>7.247204780578613</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>43.2928026235952</v>
+        <v>34.59993510209239</v>
       </c>
       <c r="M19">
-        <v>42.05058638157958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>34.25117399281076</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20">
-        <v>8.313674926757812</v>
+        <v>7.247525691986084</v>
       </c>
       <c r="C20">
-        <v>8.402549743652344</v>
+        <v>7.303464412689209</v>
       </c>
       <c r="D20">
-        <v>8.302788734436035</v>
+        <v>7.179732322692871</v>
       </c>
       <c r="E20">
-        <v>8.372455596923828</v>
+        <v>7.197100639343262</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>2041344</v>
       </c>
       <c r="L20">
-        <v>47.55205274231178</v>
+        <v>32.26150106426473</v>
       </c>
       <c r="M20">
-        <v>45.29625947159358</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>32.45637288518386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B21">
-        <v>8.369000434875488</v>
+        <v>7.197584629058838</v>
       </c>
       <c r="C21">
-        <v>8.403319358825684</v>
+        <v>7.2164306640625</v>
       </c>
       <c r="D21">
-        <v>8.169600486755371</v>
+        <v>7.065911293029785</v>
       </c>
       <c r="E21">
-        <v>8.204842567443848</v>
+        <v>7.135619640350342</v>
       </c>
       <c r="F21">
-        <v>4203152</v>
+        <v>5494992</v>
       </c>
       <c r="H21">
-        <v>8.41465106010437</v>
+        <v>7.506265377998352</v>
       </c>
       <c r="L21">
-        <v>38.40729406534966</v>
+        <v>29.50843964554173</v>
       </c>
       <c r="M21">
-        <v>38.71601385124868</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>30.35445709499047</v>
+      </c>
+      <c r="N21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B22">
-        <v>8.20528507232666</v>
+        <v>7.139664649963379</v>
       </c>
       <c r="C22">
-        <v>8.553349494934082</v>
+        <v>7.240948677062988</v>
       </c>
       <c r="D22">
-        <v>8.20528507232666</v>
+        <v>7.104309558868408</v>
       </c>
       <c r="E22">
-        <v>8.543564796447754</v>
+        <v>7.128927707672119</v>
       </c>
       <c r="F22">
-        <v>24710064</v>
+        <v>5346496</v>
       </c>
       <c r="G22">
-        <v>8.420789809454055</v>
+        <v>7.488296917506626</v>
       </c>
       <c r="H22">
-        <v>8.406700706481933</v>
+        <v>7.477184557914734</v>
       </c>
       <c r="L22">
-        <v>57.14429471842814</v>
+        <v>29.2032806740826</v>
       </c>
       <c r="M22">
-        <v>53.43711385514371</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>30.12576625924416</v>
+      </c>
+      <c r="N22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B23">
-        <v>8.544485092163086</v>
+        <v>7.129148960113525</v>
       </c>
       <c r="C23">
-        <v>8.627558708190918</v>
+        <v>7.31396484375</v>
       </c>
       <c r="D23">
-        <v>8.485355377197266</v>
+        <v>7.129148960113525</v>
       </c>
       <c r="E23">
-        <v>8.485355377197266</v>
+        <v>7.289947986602783</v>
       </c>
       <c r="F23">
-        <v>19422784</v>
+        <v>809664</v>
       </c>
       <c r="G23">
-        <v>8.426659406521619</v>
+        <v>7.470265196515367</v>
       </c>
       <c r="H23">
-        <v>8.401650857925414</v>
+        <v>7.459594988822937</v>
       </c>
       <c r="L23">
-        <v>53.97015152269486</v>
+        <v>44.68737199396605</v>
       </c>
       <c r="M23">
-        <v>51.16264248001876</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>41.53894535951908</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B24">
-        <v>8.481346130371094</v>
+        <v>7.291037559509277</v>
       </c>
       <c r="C24">
-        <v>8.540831565856934</v>
+        <v>7.313811779022217</v>
       </c>
       <c r="D24">
-        <v>8.442130088806152</v>
+        <v>7.146420001983643</v>
       </c>
       <c r="E24">
-        <v>8.490897178649902</v>
+        <v>7.203362941741943</v>
       </c>
       <c r="F24">
-        <v>11213536</v>
+        <v>1704720</v>
       </c>
       <c r="G24">
-        <v>8.432499203987826</v>
+        <v>7.446001355172329</v>
       </c>
       <c r="H24">
-        <v>8.398255395889283</v>
+        <v>7.437194228172302</v>
       </c>
       <c r="L24">
-        <v>54.24237609297469</v>
+        <v>39.46572497932052</v>
       </c>
       <c r="M24">
-        <v>51.37484029204593</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>37.94938461610376</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B25">
-        <v>8.490443229675293</v>
+        <v>7.203068256378174</v>
       </c>
       <c r="C25">
-        <v>8.524312019348145</v>
+        <v>7.27945613861084</v>
       </c>
       <c r="D25">
-        <v>8.432171821594238</v>
+        <v>7.144383430480957</v>
       </c>
       <c r="E25">
-        <v>8.442446708679199</v>
+        <v>7.163074970245361</v>
       </c>
       <c r="F25">
-        <v>4491360</v>
+        <v>4522224</v>
       </c>
       <c r="G25">
-        <v>8.433403522596132</v>
+        <v>7.420280774724422</v>
       </c>
       <c r="H25">
-        <v>8.385660743713379</v>
+        <v>7.413924169540405</v>
       </c>
       <c r="L25">
-        <v>51.26062603842906</v>
+        <v>37.19091761232723</v>
       </c>
       <c r="M25">
-        <v>49.35573894679765</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>36.37432157388643</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
       <c r="A26" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B26">
-        <v>8.44227409362793</v>
+        <v>7.162787437438965</v>
       </c>
       <c r="C26">
-        <v>8.44227409362793</v>
+        <v>7.224501609802246</v>
       </c>
       <c r="D26">
-        <v>8.128180503845215</v>
+        <v>7.062177658081055</v>
       </c>
       <c r="E26">
-        <v>8.193203926086426</v>
+        <v>7.210860252380371</v>
       </c>
       <c r="F26">
-        <v>22594752</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>8.411567195640703</v>
+        <v>7.401242545420417</v>
       </c>
       <c r="H26">
-        <v>8.37660517692566</v>
+        <v>7.390575647354126</v>
       </c>
       <c r="L26">
-        <v>38.88879162909632</v>
+        <v>41.67669716248753</v>
       </c>
       <c r="M26">
-        <v>40.53096052251011</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>39.5775994602377</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
       <c r="A27" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B27">
-        <v>8.194584846496582</v>
+        <v>7.211181163787842</v>
       </c>
       <c r="C27">
-        <v>8.312393188476562</v>
+        <v>7.213821887969971</v>
       </c>
       <c r="D27">
-        <v>8.150163650512695</v>
+        <v>6.844491004943848</v>
       </c>
       <c r="E27">
-        <v>8.151830673217773</v>
+        <v>6.89547872543335</v>
       </c>
       <c r="F27">
-        <v>1527424</v>
+        <v>16384320</v>
       </c>
       <c r="G27">
-        <v>8.387954784511347</v>
+        <v>7.355264016330683</v>
       </c>
       <c r="H27">
-        <v>8.36159439086914</v>
+        <v>7.340801858901978</v>
       </c>
       <c r="L27">
-        <v>37.21161681612534</v>
+        <v>27.23458182931671</v>
       </c>
       <c r="M27">
-        <v>39.27559363549939</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>29.1474676154637</v>
+      </c>
+      <c r="N27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
       <c r="A28" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B28">
-        <v>8.151805877685547</v>
+        <v>6.896447658538818</v>
       </c>
       <c r="C28">
-        <v>8.171087265014648</v>
+        <v>6.951338768005371</v>
       </c>
       <c r="D28">
-        <v>8.099416732788086</v>
+        <v>6.56464147567749</v>
       </c>
       <c r="E28">
-        <v>8.157160758972168</v>
+        <v>6.701807498931885</v>
       </c>
       <c r="F28">
-        <v>7897984</v>
+        <v>59768048</v>
       </c>
       <c r="G28">
-        <v>8.366973509462332</v>
+        <v>7.295858878385338</v>
       </c>
       <c r="H28">
-        <v>8.3469473361969</v>
+        <v>7.281073665618896</v>
       </c>
       <c r="L28">
-        <v>37.60164329001714</v>
+        <v>21.97405640927658</v>
       </c>
       <c r="M28">
-        <v>39.53542048193207</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>24.82151150972427</v>
+      </c>
+      <c r="N28" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
       <c r="A29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B29">
-        <v>8.157622337341309</v>
+        <v>6.700923919677734</v>
       </c>
       <c r="C29">
-        <v>8.264237403869629</v>
+        <v>6.978210926055908</v>
       </c>
       <c r="D29">
-        <v>8.154841423034668</v>
+        <v>6.666702270507812</v>
       </c>
       <c r="E29">
-        <v>8.23908519744873</v>
+        <v>6.939364433288574</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>17612960</v>
       </c>
       <c r="G29">
-        <v>8.355347299279277</v>
+        <v>7.26345029246745</v>
       </c>
       <c r="H29">
-        <v>8.336305809020995</v>
+        <v>7.233969759941101</v>
       </c>
       <c r="L29">
-        <v>43.65381326108004</v>
+        <v>38.39444463568035</v>
       </c>
       <c r="M29">
-        <v>43.53456744503627</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>37.14440072156216</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14">
       <c r="A30" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B30">
-        <v>8.238900184631348</v>
+        <v>6.93937349319458</v>
       </c>
       <c r="C30">
-        <v>8.374068260192871</v>
+        <v>7.076035976409912</v>
       </c>
       <c r="D30">
-        <v>8.223054885864258</v>
+        <v>6.886329174041748</v>
       </c>
       <c r="E30">
-        <v>8.374068260192871</v>
+        <v>7.076035976409912</v>
       </c>
       <c r="F30">
-        <v>933408</v>
+        <v>9758496</v>
       </c>
       <c r="G30">
-        <v>8.357049204816876</v>
+        <v>7.24641262737131</v>
       </c>
       <c r="H30">
-        <v>8.339077854156494</v>
+        <v>7.202333784103393</v>
       </c>
       <c r="L30">
-        <v>52.24033984452713</v>
+        <v>45.77975536449451</v>
       </c>
       <c r="M30">
-        <v>49.46527759644707</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>42.93936331235403</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B31">
-        <v>8.374576568603516</v>
+        <v>7.078752040863037</v>
       </c>
       <c r="C31">
-        <v>8.598275184631348</v>
+        <v>7.24193000793457</v>
       </c>
       <c r="D31">
-        <v>8.320809364318848</v>
+        <v>7.078752040863037</v>
       </c>
       <c r="E31">
-        <v>8.590353965759277</v>
+        <v>7.234819889068604</v>
       </c>
       <c r="F31">
-        <v>15471264</v>
+        <v>26478624</v>
       </c>
       <c r="G31">
-        <v>8.378258728538913</v>
+        <v>7.245358742071064</v>
       </c>
       <c r="H31">
-        <v>8.339263343811036</v>
+        <v>7.181574726104737</v>
       </c>
       <c r="I31">
-        <v>8.398699601491293</v>
+        <v>7.365632931391398</v>
       </c>
       <c r="L31">
-        <v>62.53254147850576</v>
+        <v>53.12448584436297</v>
       </c>
       <c r="M31">
-        <v>57.21896896392586</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>48.84062630029089</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B32">
-        <v>8.590237617492676</v>
+        <v>7.234909057617188</v>
       </c>
       <c r="C32">
-        <v>8.624625205993652</v>
+        <v>7.486652851104736</v>
       </c>
       <c r="D32">
-        <v>8.491744995117188</v>
+        <v>7.202651500701904</v>
       </c>
       <c r="E32">
-        <v>8.599076271057129</v>
+        <v>7.485913753509521</v>
       </c>
       <c r="F32">
-        <v>5686080</v>
+        <v>29814016</v>
       </c>
       <c r="G32">
-        <v>8.398333050586023</v>
+        <v>7.267227379474559</v>
       </c>
       <c r="H32">
-        <v>8.351138734817505</v>
+        <v>7.182283520698547</v>
       </c>
       <c r="I32">
-        <v>8.395249748229981</v>
+        <v>7.358145252863566</v>
       </c>
       <c r="L32">
-        <v>62.89531186881069</v>
+        <v>62.22728087953085</v>
       </c>
       <c r="M32">
-        <v>57.50215619765947</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
+        <v>56.50177926311579</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B33">
-        <v>8.599173545837402</v>
+        <v>7.487671375274658</v>
       </c>
       <c r="C33">
-        <v>8.75029468536377</v>
+        <v>7.500977039337158</v>
       </c>
       <c r="D33">
-        <v>8.567196846008301</v>
+        <v>7.390720367431641</v>
       </c>
       <c r="E33">
-        <v>8.672785758972168</v>
+        <v>7.477438449859619</v>
       </c>
       <c r="F33">
-        <v>22915904</v>
+        <v>7948832</v>
       </c>
       <c r="G33">
-        <v>8.423283296802946</v>
+        <v>7.286337476782291</v>
       </c>
       <c r="H33">
-        <v>8.370512771606446</v>
+        <v>7.189147925376892</v>
       </c>
       <c r="I33">
-        <v>8.398130861918132</v>
+        <v>7.352668555577596</v>
       </c>
       <c r="L33">
-        <v>66.02289328542798</v>
+        <v>61.77177864192521</v>
       </c>
       <c r="M33">
-        <v>59.91684472610123</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>56.1958808339313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B34">
-        <v>8.672866821289062</v>
+        <v>7.478613376617432</v>
       </c>
       <c r="C34">
-        <v>8.700243949890137</v>
+        <v>7.521772384643555</v>
       </c>
       <c r="D34">
-        <v>8.635618209838867</v>
+        <v>7.331715583801269</v>
       </c>
       <c r="E34">
-        <v>8.695573806762695</v>
+        <v>7.334986209869385</v>
       </c>
       <c r="F34">
-        <v>6555184</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>8.44803697952656</v>
+        <v>7.290760088881118</v>
       </c>
       <c r="H34">
-        <v>8.390701723098754</v>
+        <v>7.189973855018616</v>
       </c>
       <c r="I34">
-        <v>8.402689774831137</v>
+        <v>7.342122157414754</v>
       </c>
       <c r="L34">
-        <v>66.99062157049943</v>
+        <v>54.26131811057085</v>
       </c>
       <c r="M34">
-        <v>60.66103764645029</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14">
+        <v>51.18034822525551</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B35">
-        <v>8.695636749267578</v>
+        <v>7.335510730743408</v>
       </c>
       <c r="C35">
-        <v>8.801246643066406</v>
+        <v>7.505361557006836</v>
       </c>
       <c r="D35">
-        <v>8.628170013427734</v>
+        <v>7.328762054443359</v>
       </c>
       <c r="E35">
-        <v>8.649615287780762</v>
+        <v>7.445725917816162</v>
       </c>
       <c r="F35">
-        <v>42782304</v>
+        <v>844352</v>
       </c>
       <c r="G35">
-        <v>8.466362280276941</v>
+        <v>7.304847891511576</v>
       </c>
       <c r="H35">
-        <v>8.404033851623534</v>
+        <v>7.189989328384399</v>
       </c>
       <c r="I35">
-        <v>8.401198959350586</v>
+        <v>7.33603048324585</v>
       </c>
       <c r="L35">
-        <v>62.92434274815221</v>
+        <v>58.6573550490643</v>
       </c>
       <c r="M35">
-        <v>58.30973627520375</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14">
+        <v>54.57449860145061</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B36">
-        <v>8.649016380310059</v>
+        <v>7.448652744293213</v>
       </c>
       <c r="C36">
-        <v>8.749347686767578</v>
+        <v>7.509983539581299</v>
       </c>
       <c r="D36">
-        <v>8.44936466217041</v>
+        <v>7.310256481170654</v>
       </c>
       <c r="E36">
-        <v>8.490887641906738</v>
+        <v>7.325173854827881</v>
       </c>
       <c r="F36">
-        <v>41021024</v>
+        <v>4288224</v>
       </c>
       <c r="G36">
-        <v>8.468591858606922</v>
+        <v>7.306695706358513</v>
       </c>
       <c r="H36">
-        <v>8.412337446212769</v>
+        <v>7.190562605857849</v>
       </c>
       <c r="I36">
-        <v>8.405084705352783</v>
+        <v>7.324275255203247</v>
       </c>
       <c r="L36">
-        <v>50.91614716423525</v>
+        <v>52.48009230765187</v>
       </c>
       <c r="M36">
-        <v>50.96255302401675</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>50.46155295318314</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B37">
-        <v>8.485041618347168</v>
+        <v>7.325955867767334</v>
       </c>
       <c r="C37">
-        <v>8.500622749328613</v>
+        <v>7.34397554397583</v>
       </c>
       <c r="D37">
-        <v>8.400629997253418</v>
+        <v>7.092454433441162</v>
       </c>
       <c r="E37">
-        <v>8.430759429931641</v>
+        <v>7.163831233978272</v>
       </c>
       <c r="F37">
-        <v>11022112</v>
+        <v>8923616</v>
       </c>
       <c r="G37">
-        <v>8.465152546909168</v>
+        <v>7.293708027051217</v>
       </c>
       <c r="H37">
-        <v>8.423474025726318</v>
+        <v>7.193118047714234</v>
       </c>
       <c r="I37">
-        <v>8.404375139872233</v>
+        <v>7.300037813186646</v>
       </c>
       <c r="L37">
-        <v>47.08670428568191</v>
+        <v>45.29759138282476</v>
       </c>
       <c r="M37">
-        <v>48.47098887873649</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>45.51731878196157</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B38">
-        <v>8.430130958557129</v>
+        <v>7.157337188720703</v>
       </c>
       <c r="C38">
-        <v>8.477474212646484</v>
+        <v>7.157337188720703</v>
       </c>
       <c r="D38">
-        <v>8.35427188873291</v>
+        <v>6.991518497467041</v>
       </c>
       <c r="E38">
-        <v>8.413022041320801</v>
+        <v>7.024489879608154</v>
       </c>
       <c r="F38">
-        <v>865920</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>8.460413410037498</v>
+        <v>7.269233650010938</v>
       </c>
       <c r="H38">
-        <v>8.42549786567688</v>
+        <v>7.184058237075805</v>
       </c>
       <c r="I38">
-        <v>8.403139146169027</v>
+        <v>7.270975097020467</v>
       </c>
       <c r="L38">
-        <v>45.94004242198741</v>
+        <v>39.98116302128174</v>
       </c>
       <c r="M38">
-        <v>47.72966942384839</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
+        <v>41.71582037926024</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B39">
-        <v>8.412876129150391</v>
+        <v>7.02565860748291</v>
       </c>
       <c r="C39">
-        <v>8.545675277709961</v>
+        <v>7.178438663482666</v>
       </c>
       <c r="D39">
-        <v>8.412876129150391</v>
+        <v>6.926911354064941</v>
       </c>
       <c r="E39">
-        <v>8.435797691345215</v>
+        <v>7.116668224334717</v>
       </c>
       <c r="F39">
-        <v>0</v>
+        <v>45861024</v>
       </c>
       <c r="G39">
-        <v>8.458175617429109</v>
+        <v>7.255364065858554</v>
       </c>
       <c r="H39">
-        <v>8.431639146804809</v>
+        <v>7.177531409263611</v>
       </c>
       <c r="I39">
-        <v>8.402601877848307</v>
+        <v>7.245482619603475</v>
       </c>
       <c r="L39">
-        <v>47.77713642203001</v>
+        <v>44.80248139594166</v>
       </c>
       <c r="M39">
-        <v>48.81223806348914</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14">
+        <v>44.98893884339278</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B40">
-        <v>8.436837196350098</v>
+        <v>7.11854076385498</v>
       </c>
       <c r="C40">
-        <v>8.564529418945312</v>
+        <v>7.217629909515381</v>
       </c>
       <c r="D40">
-        <v>8.436837196350098</v>
+        <v>7.099129676818848</v>
       </c>
       <c r="E40">
-        <v>8.4576416015625</v>
+        <v>7.140357494354248</v>
       </c>
       <c r="F40">
-        <v>743776</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>8.458127070532145</v>
+        <v>7.244908922994527</v>
       </c>
       <c r="H40">
-        <v>8.435898447036744</v>
+        <v>7.17469425201416</v>
       </c>
       <c r="I40">
-        <v>8.407235685984293</v>
+        <v>7.226536019643148</v>
       </c>
       <c r="L40">
-        <v>49.62423246920483</v>
+        <v>46.05533980623551</v>
       </c>
       <c r="M40">
-        <v>49.88429614509418</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14">
+        <v>45.8308581106574</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B41">
-        <v>8.456735610961914</v>
+        <v>7.140257358551025</v>
       </c>
       <c r="C41">
-        <v>8.544435501098633</v>
+        <v>7.186277866363525</v>
       </c>
       <c r="D41">
-        <v>8.158066749572754</v>
+        <v>7.08452320098877</v>
       </c>
       <c r="E41">
-        <v>8.165144920349121</v>
+        <v>7.08452320098877</v>
       </c>
       <c r="F41">
-        <v>21096864</v>
+        <v>0</v>
       </c>
       <c r="G41">
-        <v>8.431492329606415</v>
+        <v>7.230328402812185</v>
       </c>
       <c r="H41">
-        <v>8.433913564682006</v>
+        <v>7.172139430046082</v>
       </c>
       <c r="I41">
-        <v>8.393185710906982</v>
+        <v>7.207686758041381</v>
       </c>
       <c r="L41">
-        <v>32.37469213845441</v>
+        <v>43.44087459807491</v>
       </c>
       <c r="M41">
-        <v>38.31317255054363</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14">
+        <v>44.11705483989417</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B42">
-        <v>8.164056777954102</v>
+        <v>7.083779335021973</v>
       </c>
       <c r="C42">
-        <v>8.164056777954102</v>
+        <v>7.216375827789307</v>
       </c>
       <c r="D42">
-        <v>6.9780592918396</v>
+        <v>6.998198509216309</v>
       </c>
       <c r="E42">
-        <v>7.736027240753174</v>
+        <v>7.141175746917725</v>
       </c>
       <c r="F42">
-        <v>303903136</v>
+        <v>2203840</v>
       </c>
       <c r="G42">
-        <v>8.368268230619757</v>
+        <v>7.222223615912689</v>
       </c>
       <c r="H42">
-        <v>8.393536686897278</v>
+        <v>7.172751832008362</v>
       </c>
       <c r="I42">
-        <v>8.372334337234497</v>
+        <v>7.196668020884196</v>
       </c>
       <c r="L42">
-        <v>20.57222194525986</v>
+        <v>46.88285601686255</v>
       </c>
       <c r="M42">
-        <v>28.03783136310362</v>
-      </c>
-      <c r="N42" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14">
+        <v>46.31083312900957</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B43">
-        <v>7.740234375</v>
+        <v>7.141897678375244</v>
       </c>
       <c r="C43">
-        <v>7.774962425231934</v>
+        <v>7.141897678375244</v>
       </c>
       <c r="D43">
-        <v>7.617019653320312</v>
+        <v>6.848067283630371</v>
       </c>
       <c r="E43">
-        <v>7.710544109344482</v>
+        <v>7.056498050689697</v>
       </c>
       <c r="F43">
-        <v>40366080</v>
+        <v>9425888</v>
       </c>
       <c r="G43">
-        <v>8.30847512868564</v>
+        <v>7.207157655437872</v>
       </c>
       <c r="H43">
-        <v>8.354796123504638</v>
+        <v>7.161079335212707</v>
       </c>
       <c r="I43">
-        <v>8.353175640106201</v>
+        <v>7.187212944030762</v>
       </c>
       <c r="L43">
-        <v>20.08308925190103</v>
+        <v>42.53064512468664</v>
       </c>
       <c r="M43">
-        <v>27.56504182180051</v>
-      </c>
-      <c r="N43" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14">
+        <v>43.55838285729004</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B44">
-        <v>7.711027145385742</v>
+        <v>7.08217716217041</v>
       </c>
       <c r="C44">
-        <v>7.807874202728271</v>
+        <v>7.256207942962646</v>
       </c>
       <c r="D44">
-        <v>7.616108894348144</v>
+        <v>7.019657611846924</v>
       </c>
       <c r="E44">
-        <v>7.641739368438721</v>
+        <v>7.256207942962646</v>
       </c>
       <c r="F44">
-        <v>5511360</v>
+        <v>16508256</v>
       </c>
       <c r="G44">
-        <v>8.24786278684501</v>
+        <v>7.211616772485578</v>
       </c>
       <c r="H44">
-        <v>8.31233823299408</v>
+        <v>7.163721585273743</v>
       </c>
       <c r="I44">
-        <v>8.331507126490274</v>
+        <v>7.185137621561686</v>
       </c>
       <c r="L44">
-        <v>18.73036340937539</v>
+        <v>53.88832944406133</v>
       </c>
       <c r="M44">
-        <v>26.27666207000384</v>
-      </c>
-      <c r="N44" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:14">
+        <v>50.96112486188311</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B45">
-        <v>7.641465187072754</v>
+        <v>7.256858348846436</v>
       </c>
       <c r="C45">
-        <v>7.690935611724853</v>
+        <v>8.074015617370605</v>
       </c>
       <c r="D45">
-        <v>7.537779808044434</v>
+        <v>7.199158668518066</v>
       </c>
       <c r="E45">
-        <v>7.651378154754639</v>
+        <v>7.970341205596924</v>
       </c>
       <c r="F45">
-        <v>13126976</v>
+        <v>128575584</v>
       </c>
       <c r="G45">
-        <v>8.19363691120043</v>
+        <v>7.280591720950246</v>
       </c>
       <c r="H45">
-        <v>8.272784805297851</v>
+        <v>7.204084897041321</v>
       </c>
       <c r="I45">
-        <v>8.307120641072592</v>
+        <v>7.202635113398234</v>
       </c>
       <c r="L45">
-        <v>19.58401016026306</v>
+        <v>74.31153301191002</v>
       </c>
       <c r="M45">
-        <v>26.79287308808663</v>
-      </c>
-      <c r="N45" t="s">
+        <v>67.41769532728301</v>
+      </c>
+      <c r="O45" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
+    <row r="46" spans="1:15">
       <c r="A46" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B46">
-        <v>7.65169095993042</v>
+        <v>7.973370552062988</v>
       </c>
       <c r="C46">
-        <v>7.746047973632812</v>
+        <v>8.233393669128418</v>
       </c>
       <c r="D46">
-        <v>7.628476142883301</v>
+        <v>7.961190700531006</v>
       </c>
       <c r="E46">
-        <v>7.628476142883301</v>
+        <v>8.212300300598145</v>
       </c>
       <c r="F46">
-        <v>5232960</v>
+        <v>78875456</v>
       </c>
       <c r="G46">
-        <v>8.142258659535237</v>
+        <v>7.365292500918236</v>
       </c>
       <c r="H46">
-        <v>8.244548416137695</v>
+        <v>7.25415689945221</v>
       </c>
       <c r="I46">
-        <v>8.283909320831299</v>
+        <v>7.23258817990621</v>
       </c>
       <c r="L46">
-        <v>19.04916314001911</v>
+        <v>78.02191096111129</v>
       </c>
       <c r="M46">
-        <v>26.32128232559343</v>
-      </c>
-      <c r="N46" t="s">
+        <v>70.97206320729967</v>
+      </c>
+      <c r="O46" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="1:14">
+    <row r="47" spans="1:15">
       <c r="A47" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B47">
-        <v>7.621276378631592</v>
+        <v>8.216131210327148</v>
       </c>
       <c r="C47">
-        <v>7.707564353942871</v>
+        <v>8.378267288208008</v>
       </c>
       <c r="D47">
-        <v>7.554222106933594</v>
+        <v>7.883281707763672</v>
       </c>
       <c r="E47">
-        <v>7.677830696105957</v>
+        <v>8.341137886047363</v>
       </c>
       <c r="F47">
-        <v>7968128</v>
+        <v>98671200</v>
       </c>
       <c r="G47">
-        <v>8.100037935587119</v>
+        <v>7.454005717748156</v>
       </c>
       <c r="H47">
-        <v>8.220848417282104</v>
+        <v>7.32643985748291</v>
       </c>
       <c r="I47">
-        <v>8.26623608271281</v>
+        <v>7.273535362879435</v>
       </c>
       <c r="L47">
-        <v>24.07619927811243</v>
+        <v>79.77209610218381</v>
       </c>
       <c r="M47">
-        <v>29.21288416988268</v>
-      </c>
-      <c r="N47" t="s">
+        <v>72.68101734025167</v>
+      </c>
+      <c r="O47" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:15">
       <c r="A48" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B48">
-        <v>7.677067756652832</v>
+        <v>8.340578079223633</v>
       </c>
       <c r="C48">
-        <v>7.934145927429199</v>
+        <v>8.43482494354248</v>
       </c>
       <c r="D48">
-        <v>7.655525207519531</v>
+        <v>8.281900405883789</v>
       </c>
       <c r="E48">
-        <v>7.890954494476318</v>
+        <v>8.39035701751709</v>
       </c>
       <c r="F48">
-        <v>0</v>
+        <v>33044288</v>
       </c>
       <c r="G48">
-        <v>8.081030350031591</v>
+        <v>7.539128563181696</v>
       </c>
       <c r="H48">
-        <v>8.207538104057312</v>
+        <v>7.41086733341217</v>
       </c>
       <c r="I48">
-        <v>8.250183057785033</v>
+        <v>7.313024393717448</v>
       </c>
       <c r="L48">
-        <v>41.67249678286279</v>
+        <v>80.44147803643082</v>
       </c>
       <c r="M48">
-        <v>40.13823428913401</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14">
+        <v>73.32705997333784</v>
+      </c>
+      <c r="O48" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B49">
-        <v>7.891368389129639</v>
+        <v>8.391635894775391</v>
       </c>
       <c r="C49">
-        <v>7.959010601043701</v>
+        <v>8.566725730895996</v>
       </c>
       <c r="D49">
-        <v>7.810541152954102</v>
+        <v>8.169137954711914</v>
       </c>
       <c r="E49">
-        <v>7.896371364593506</v>
+        <v>8.206169128417969</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>56203584</v>
       </c>
       <c r="G49">
-        <v>8.064243169537219</v>
+        <v>7.599768614566812</v>
       </c>
       <c r="H49">
-        <v>8.190402412414551</v>
+        <v>7.47420756816864</v>
       </c>
       <c r="I49">
-        <v>8.236296367645263</v>
+        <v>7.344989871978759</v>
       </c>
       <c r="L49">
-        <v>42.05648437784258</v>
+        <v>70.60502815787397</v>
       </c>
       <c r="M49">
-        <v>40.39006053122959</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14">
+        <v>66.94680117838428</v>
+      </c>
+      <c r="O49" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B50">
-        <v>7.896811008453369</v>
+        <v>8.213449478149414</v>
       </c>
       <c r="C50">
-        <v>7.987429141998291</v>
+        <v>8.267623901367188</v>
       </c>
       <c r="D50">
-        <v>7.84773063659668</v>
+        <v>8.091368675231934</v>
       </c>
       <c r="E50">
-        <v>7.881442546844482</v>
+        <v>8.244242668151855</v>
       </c>
       <c r="F50">
-        <v>4670336</v>
+        <v>26303488</v>
       </c>
       <c r="G50">
-        <v>8.047624931110606</v>
+        <v>7.658357164892724</v>
       </c>
       <c r="H50">
-        <v>8.165771126747131</v>
+        <v>7.532617902755737</v>
       </c>
       <c r="I50">
-        <v>8.219929265975953</v>
+        <v>7.379894606272379</v>
       </c>
       <c r="L50">
-        <v>41.21522294820044</v>
+        <v>71.41780009698695</v>
       </c>
       <c r="M50">
-        <v>39.89198094569982</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14">
+        <v>67.5748634480796</v>
+      </c>
+      <c r="O50" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B51">
-        <v>7.881258487701416</v>
+        <v>8.241080284118652</v>
       </c>
       <c r="C51">
-        <v>7.945945739746094</v>
+        <v>8.313003540039062</v>
       </c>
       <c r="D51">
-        <v>7.656022071838379</v>
+        <v>8.069759368896484</v>
       </c>
       <c r="E51">
-        <v>7.708755493164062</v>
+        <v>8.170954704284668</v>
       </c>
       <c r="F51">
-        <v>27042656</v>
+        <v>0</v>
       </c>
       <c r="G51">
-        <v>8.01681861857001</v>
+        <v>7.704956941201083</v>
       </c>
       <c r="H51">
-        <v>8.12169120311737</v>
+        <v>7.579424643516541</v>
       </c>
       <c r="I51">
-        <v>8.203393030166627</v>
+        <v>7.414405775070191</v>
       </c>
       <c r="L51">
-        <v>32.70254116924974</v>
+        <v>67.38312363110025</v>
       </c>
       <c r="M51">
-        <v>34.57987525631116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14">
+        <v>65.01397868144223</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B52">
-        <v>7.709463119506836</v>
+        <v>8.166200637817383</v>
       </c>
       <c r="C52">
-        <v>7.738072395324707</v>
+        <v>8.206326484680176</v>
       </c>
       <c r="D52">
-        <v>7.64279842376709</v>
+        <v>8.05112361907959</v>
       </c>
       <c r="E52">
-        <v>7.650001049041748</v>
+        <v>8.113630294799805</v>
       </c>
       <c r="F52">
-        <v>5154528</v>
+        <v>0</v>
       </c>
       <c r="G52">
-        <v>7.983471566794714</v>
+        <v>7.742109064255512</v>
       </c>
       <c r="H52">
-        <v>8.074237442016601</v>
+        <v>7.610810470581055</v>
       </c>
       <c r="I52">
-        <v>8.173607571919758</v>
+        <v>7.447229194641113</v>
       </c>
       <c r="L52">
-        <v>30.30658324668209</v>
+        <v>64.19200714154103</v>
       </c>
       <c r="M52">
-        <v>32.97115372763493</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14">
+        <v>63.00277454972623</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B53">
-        <v>7.645634174346924</v>
+        <v>8.10886287689209</v>
       </c>
       <c r="C53">
-        <v>7.670877933502197</v>
+        <v>8.189996719360352</v>
       </c>
       <c r="D53">
-        <v>7.471737861633301</v>
+        <v>8.052693367004395</v>
       </c>
       <c r="E53">
-        <v>7.471737861633301</v>
+        <v>8.062344551086426</v>
       </c>
       <c r="F53">
-        <v>8670816</v>
+        <v>0</v>
       </c>
       <c r="G53">
-        <v>7.936950320870949</v>
+        <v>7.771221381240141</v>
       </c>
       <c r="H53">
-        <v>8.014185047149658</v>
+        <v>7.640055775642395</v>
       </c>
       <c r="I53">
-        <v>8.139820321400959</v>
+        <v>7.472975746790568</v>
       </c>
       <c r="L53">
-        <v>24.24380218017444</v>
+        <v>61.27149133947456</v>
       </c>
       <c r="M53">
-        <v>28.62062366629119</v>
-      </c>
-      <c r="N53" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="54" spans="1:14">
+        <v>61.17931648453462</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B54">
-        <v>7.470725059509277</v>
+        <v>8.062664985656738</v>
       </c>
       <c r="C54">
-        <v>7.531451225280762</v>
+        <v>8.11075496673584</v>
       </c>
       <c r="D54">
-        <v>7.29517126083374</v>
+        <v>7.978395938873291</v>
       </c>
       <c r="E54">
-        <v>7.340150356292725</v>
+        <v>8.075053215026855</v>
       </c>
       <c r="F54">
-        <v>11061472</v>
+        <v>1376096</v>
       </c>
       <c r="G54">
-        <v>7.882695778636565</v>
+        <v>7.798842457038933</v>
       </c>
       <c r="H54">
-        <v>7.94641387462616</v>
+        <v>7.677059125900269</v>
       </c>
       <c r="I54">
-        <v>8.101462093989054</v>
+        <v>7.502032089233398</v>
       </c>
       <c r="L54">
-        <v>20.79001740936295</v>
+        <v>61.75654687443311</v>
       </c>
       <c r="M54">
-        <v>25.90352977110041</v>
-      </c>
-      <c r="N54" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="55" spans="1:14">
+        <v>61.47685674680496</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B55">
-        <v>7.351517200469971</v>
+        <v>8.073393821716309</v>
       </c>
       <c r="C55">
-        <v>7.384527683258057</v>
+        <v>8.197699546813965</v>
       </c>
       <c r="D55">
-        <v>7.24633264541626</v>
+        <v>7.872086048126221</v>
       </c>
       <c r="E55">
-        <v>7.318467617034912</v>
+        <v>7.88673210144043</v>
       </c>
       <c r="F55">
-        <v>8995968</v>
+        <v>0</v>
       </c>
       <c r="G55">
-        <v>7.831402309400051</v>
+        <v>7.806832424711796</v>
       </c>
       <c r="H55">
-        <v>7.879856491088868</v>
+        <v>7.699109435081482</v>
       </c>
       <c r="I55">
-        <v>8.063996124267579</v>
+        <v>7.526153993606568</v>
       </c>
       <c r="L55">
-        <v>20.25510694351619</v>
+        <v>51.08950446593474</v>
       </c>
       <c r="M55">
-        <v>25.47437565776882</v>
-      </c>
-      <c r="N55" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14">
+        <v>54.77701248824008</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B56">
-        <v>7.317039012908935</v>
+        <v>7.88680362701416</v>
       </c>
       <c r="C56">
-        <v>7.445416450500488</v>
+        <v>7.938028812408447</v>
       </c>
       <c r="D56">
-        <v>7.312897205352783</v>
+        <v>7.604939460754394</v>
       </c>
       <c r="E56">
-        <v>7.445416450500488</v>
+        <v>7.740667819976807</v>
       </c>
       <c r="F56">
-        <v>1382080</v>
+        <v>24632224</v>
       </c>
       <c r="G56">
-        <v>7.796312685863727</v>
+        <v>7.800817460644978</v>
       </c>
       <c r="H56">
-        <v>7.827582931518554</v>
+        <v>7.719884133338928</v>
       </c>
       <c r="I56">
-        <v>8.039069875081379</v>
+        <v>7.543814245859782</v>
       </c>
       <c r="L56">
-        <v>31.81109418051695</v>
+        <v>44.39802426868552</v>
       </c>
       <c r="M56">
-        <v>32.5230732220196</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14">
+        <v>50.20671416882811</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B57">
-        <v>7.445598125457764</v>
+        <v>7.744359016418457</v>
       </c>
       <c r="C57">
-        <v>7.448601245880127</v>
+        <v>7.806610107421875</v>
       </c>
       <c r="D57">
-        <v>7.312576770782471</v>
+        <v>7.419298648834228</v>
       </c>
       <c r="E57">
-        <v>7.313708305358887</v>
+        <v>7.568605422973633</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>27419744</v>
       </c>
       <c r="G57">
-        <v>7.752439560363287</v>
+        <v>7.779707275402129</v>
       </c>
       <c r="H57">
-        <v>7.771730375289917</v>
+        <v>7.740122842788696</v>
       </c>
       <c r="I57">
-        <v>8.011132462819416</v>
+        <v>7.566251802444458</v>
       </c>
       <c r="L57">
-        <v>27.20902090439315</v>
+        <v>37.83146162149058</v>
       </c>
       <c r="M57">
-        <v>29.41467979877985</v>
-      </c>
-      <c r="N57" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14">
+        <v>45.40119697955623</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B58">
-        <v>7.313854217529297</v>
+        <v>7.567115306854248</v>
       </c>
       <c r="C58">
-        <v>7.335461139678955</v>
+        <v>7.634119033813477</v>
       </c>
       <c r="D58">
-        <v>6.987271785736084</v>
+        <v>7.412960529327393</v>
       </c>
       <c r="E58">
-        <v>7.112722396850586</v>
+        <v>7.600932598114014</v>
       </c>
       <c r="F58">
-        <v>21903456</v>
+        <v>11041472</v>
       </c>
       <c r="G58">
-        <v>7.694283454589405</v>
+        <v>7.7634550320123</v>
       </c>
       <c r="H58">
-        <v>7.706715393066406</v>
+        <v>7.768944978713989</v>
       </c>
       <c r="I58">
-        <v>7.976317850748698</v>
+        <v>7.596222639083862</v>
       </c>
       <c r="L58">
-        <v>21.79582512141997</v>
+        <v>39.71602454153886</v>
       </c>
       <c r="M58">
-        <v>25.42178311616239</v>
-      </c>
-      <c r="N58" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14">
+        <v>46.43848100901737</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B59">
-        <v>7.113919734954834</v>
+        <v>7.600135326385498</v>
       </c>
       <c r="C59">
-        <v>7.212947368621826</v>
+        <v>7.739674091339111</v>
       </c>
       <c r="D59">
-        <v>7.096461296081543</v>
+        <v>7.588416576385498</v>
       </c>
       <c r="E59">
-        <v>7.205686092376709</v>
+        <v>7.697978019714355</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1577472</v>
       </c>
       <c r="G59">
-        <v>7.649865512570068</v>
+        <v>7.75750257634885</v>
       </c>
       <c r="H59">
-        <v>7.645209813117981</v>
+        <v>7.798010468482971</v>
       </c>
       <c r="I59">
-        <v>7.941871213912964</v>
+        <v>7.621509758631388</v>
       </c>
       <c r="L59">
-        <v>29.13233086927972</v>
+        <v>45.31452585342711</v>
       </c>
       <c r="M59">
-        <v>30.14516309516086</v>
-      </c>
-      <c r="N59" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14">
+        <v>49.53784337436982</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B60">
-        <v>7.20592212677002</v>
+        <v>7.696512222290039</v>
       </c>
       <c r="C60">
-        <v>7.265536785125732</v>
+        <v>7.737850189208984</v>
       </c>
       <c r="D60">
-        <v>7.130081653594971</v>
+        <v>7.604259967803955</v>
       </c>
       <c r="E60">
-        <v>7.247204780578613</v>
+        <v>7.642121315002441</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>7.613259991479936</v>
+        <v>7.747013370771904</v>
       </c>
       <c r="H60">
-        <v>7.584687972068787</v>
+        <v>7.823098659515381</v>
       </c>
       <c r="I60">
-        <v>7.904309097925822</v>
+        <v>7.640379269917806</v>
       </c>
       <c r="L60">
-        <v>32.32230842206398</v>
+        <v>42.7441347335677</v>
       </c>
       <c r="M60">
-        <v>32.21016470615497</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14">
+        <v>47.82255483061235</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B61">
-        <v>7.247525691986084</v>
+        <v>7.644447326660156</v>
       </c>
       <c r="C61">
-        <v>7.303464412689209</v>
+        <v>7.740000247955322</v>
       </c>
       <c r="D61">
-        <v>7.179732322692871</v>
+        <v>7.597274780273437</v>
       </c>
       <c r="E61">
-        <v>7.197100639343262</v>
+        <v>7.70510721206665</v>
       </c>
       <c r="F61">
-        <v>2041344</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>7.575427323103874</v>
+        <v>7.743203719980517</v>
       </c>
       <c r="H61">
-        <v>7.536285758018494</v>
+        <v>7.854127860069275</v>
       </c>
       <c r="I61">
-        <v>7.857867320378621</v>
+        <v>7.656055514017741</v>
       </c>
       <c r="L61">
-        <v>30.46080686763572</v>
+        <v>46.58761184595432</v>
       </c>
       <c r="M61">
-        <v>31.01848596868293</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14">
+        <v>49.92801761246479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B62">
-        <v>7.197584629058838</v>
+        <v>7.70510721206665</v>
       </c>
       <c r="C62">
-        <v>7.2164306640625</v>
+        <v>7.724812507629394</v>
       </c>
       <c r="D62">
-        <v>7.065911293029785</v>
+        <v>7.633092403411865</v>
       </c>
       <c r="E62">
-        <v>7.135619640350342</v>
+        <v>7.636444568634033</v>
       </c>
       <c r="F62">
-        <v>5494992</v>
+        <v>0</v>
       </c>
       <c r="G62">
-        <v>7.535444806489916</v>
+        <v>7.733498342585382</v>
       </c>
       <c r="H62">
-        <v>7.506265377998352</v>
+        <v>7.878891301155091</v>
       </c>
       <c r="I62">
-        <v>7.809085432688395</v>
+        <v>7.661073207855225</v>
       </c>
       <c r="L62">
-        <v>28.21744881813919</v>
+        <v>43.04399609866458</v>
       </c>
       <c r="M62">
-        <v>29.57268351781769</v>
-      </c>
-      <c r="N62" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14">
+        <v>47.66977924034354</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B63">
-        <v>7.139664649963379</v>
+        <v>7.635578632354736</v>
       </c>
       <c r="C63">
-        <v>7.240948677062988</v>
+        <v>7.6620192527771</v>
       </c>
       <c r="D63">
-        <v>7.104309558868408</v>
+        <v>7.607147216796875</v>
       </c>
       <c r="E63">
-        <v>7.128927707672119</v>
+        <v>7.613145351409912</v>
       </c>
       <c r="F63">
-        <v>5346496</v>
+        <v>4947824</v>
       </c>
       <c r="G63">
-        <v>7.498488706597389</v>
+        <v>7.72255716156943</v>
       </c>
       <c r="H63">
-        <v>7.477184557914734</v>
+        <v>7.906723666191101</v>
       </c>
       <c r="I63">
-        <v>7.75762349764506</v>
+        <v>7.665596771240234</v>
       </c>
       <c r="L63">
-        <v>27.96525229030095</v>
+        <v>41.82940200715011</v>
       </c>
       <c r="M63">
-        <v>29.41198641446285</v>
-      </c>
-      <c r="N63" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14">
+        <v>46.89468488107122</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B64">
-        <v>7.129148960113525</v>
+        <v>7.613140106201172</v>
       </c>
       <c r="C64">
-        <v>7.31396484375</v>
+        <v>7.617435455322266</v>
       </c>
       <c r="D64">
-        <v>7.129148960113525</v>
+        <v>7.507582664489746</v>
       </c>
       <c r="E64">
-        <v>7.289947986602783</v>
+        <v>7.507941246032715</v>
       </c>
       <c r="F64">
-        <v>809664</v>
+        <v>0</v>
       </c>
       <c r="G64">
-        <v>7.479530459325151</v>
+        <v>7.703046623793364</v>
       </c>
       <c r="H64">
-        <v>7.459594988822937</v>
+        <v>7.919310331344604</v>
       </c>
       <c r="I64">
-        <v>7.71076930363973</v>
+        <v>7.671361939112345</v>
       </c>
       <c r="L64">
-        <v>41.99808176240413</v>
+        <v>36.5853216492353</v>
       </c>
       <c r="M64">
-        <v>38.12461009652021</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14">
+        <v>43.45860495518218</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B65">
-        <v>7.291037559509277</v>
+        <v>7.509918212890625</v>
       </c>
       <c r="C65">
-        <v>7.313811779022217</v>
+        <v>7.657936573028564</v>
       </c>
       <c r="D65">
-        <v>7.146420001983643</v>
+        <v>7.47204065322876</v>
       </c>
       <c r="E65">
-        <v>7.203362941741943</v>
+        <v>7.617588996887207</v>
       </c>
       <c r="F65">
-        <v>1704720</v>
+        <v>280736</v>
       </c>
       <c r="G65">
-        <v>7.454424321363041</v>
+        <v>7.695277748620077</v>
       </c>
       <c r="H65">
-        <v>7.437194228172302</v>
+        <v>7.901672720909119</v>
       </c>
       <c r="I65">
-        <v>7.662560892105103</v>
+        <v>7.677090708414713</v>
       </c>
       <c r="L65">
-        <v>37.57051434340426</v>
+        <v>44.71240874090993</v>
       </c>
       <c r="M65">
-        <v>35.58136839019391</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14">
+        <v>47.75529147590156</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B66">
-        <v>7.203068256378174</v>
+        <v>7.616969108581543</v>
       </c>
       <c r="C66">
-        <v>7.27945613861084</v>
+        <v>7.688344478607178</v>
       </c>
       <c r="D66">
-        <v>7.144383430480957</v>
+        <v>7.580238342285156</v>
       </c>
       <c r="E66">
-        <v>7.163074970245361</v>
+        <v>7.581718444824219</v>
       </c>
       <c r="F66">
-        <v>4522224</v>
+        <v>0</v>
       </c>
       <c r="G66">
-        <v>7.427938016715979</v>
+        <v>7.684954175547726</v>
       </c>
       <c r="H66">
-        <v>7.413924169540405</v>
+        <v>7.870143628120422</v>
       </c>
       <c r="I66">
-        <v>7.61830046971639</v>
+        <v>7.685642194747925</v>
       </c>
       <c r="L66">
-        <v>35.60561950386791</v>
+        <v>42.69846099963705</v>
       </c>
       <c r="M66">
-        <v>34.43045617075381</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14">
+        <v>46.51009636853431</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B67">
-        <v>7.162787437438965</v>
+        <v>7.582293510437012</v>
       </c>
       <c r="C67">
-        <v>7.224501609802246</v>
+        <v>7.668272972106934</v>
       </c>
       <c r="D67">
-        <v>7.062177658081055</v>
+        <v>7.548913478851318</v>
       </c>
       <c r="E67">
-        <v>7.210860252380371</v>
+        <v>7.665726184844971</v>
       </c>
       <c r="F67">
-        <v>0</v>
+        <v>1491328</v>
       </c>
       <c r="G67">
-        <v>7.408203674503651</v>
+        <v>7.68320617639293</v>
       </c>
       <c r="H67">
-        <v>7.390575647354126</v>
+        <v>7.836373043060303</v>
       </c>
       <c r="I67">
-        <v>7.577637163798014</v>
+        <v>7.702372026443482</v>
       </c>
       <c r="L67">
-        <v>39.80625331318179</v>
+        <v>48.77724643896995</v>
       </c>
       <c r="M67">
-        <v>37.03206755926333</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14">
+        <v>49.81069711153075</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B68">
-        <v>7.211181163787842</v>
+        <v>7.666211128234863</v>
       </c>
       <c r="C68">
-        <v>7.213821887969971</v>
+        <v>7.678668022155762</v>
       </c>
       <c r="D68">
-        <v>6.844491004943848</v>
+        <v>7.482222557067871</v>
       </c>
       <c r="E68">
-        <v>6.89547872543335</v>
+        <v>7.482222557067871</v>
       </c>
       <c r="F68">
-        <v>16384320</v>
+        <v>0</v>
       </c>
       <c r="G68">
-        <v>7.361592315497259</v>
+        <v>7.66493493827247</v>
       </c>
       <c r="H68">
-        <v>7.340801858901978</v>
+        <v>7.790966320037842</v>
       </c>
       <c r="I68">
-        <v>7.527052386601766</v>
+        <v>7.717629782358805</v>
       </c>
       <c r="L68">
-        <v>26.81725228475086</v>
+        <v>38.69083819795544</v>
       </c>
       <c r="M68">
-        <v>28.88590574009571</v>
-      </c>
-      <c r="N68" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14">
+        <v>43.49691398965509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B69">
-        <v>6.896447658538818</v>
+        <v>7.482008934020996</v>
       </c>
       <c r="C69">
-        <v>6.951338768005371</v>
+        <v>7.533543586730957</v>
       </c>
       <c r="D69">
-        <v>6.56464147567749</v>
+        <v>7.327221393585205</v>
       </c>
       <c r="E69">
-        <v>6.701807498931885</v>
+        <v>7.327221393585205</v>
       </c>
       <c r="F69">
-        <v>59768048</v>
+        <v>11533360</v>
       </c>
       <c r="G69">
-        <v>7.301611877627679</v>
+        <v>7.634233706937264</v>
       </c>
       <c r="H69">
-        <v>7.281073665618896</v>
+        <v>7.747018933296204</v>
       </c>
       <c r="I69">
-        <v>7.469252713521322</v>
+        <v>7.724648221333822</v>
       </c>
       <c r="L69">
-        <v>21.88400738731627</v>
+        <v>32.33668618891225</v>
       </c>
       <c r="M69">
-        <v>25.21740212451899</v>
-      </c>
-      <c r="N69" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14">
+        <v>39.00007378008356</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B70">
-        <v>6.700923919677734</v>
+        <v>7.325548648834228</v>
       </c>
       <c r="C70">
-        <v>6.978210926055908</v>
+        <v>7.635625839233398</v>
       </c>
       <c r="D70">
-        <v>6.666702270507812</v>
+        <v>7.320394992828369</v>
       </c>
       <c r="E70">
-        <v>6.939364433288574</v>
+        <v>7.599507808685303</v>
       </c>
       <c r="F70">
-        <v>17612960</v>
+        <v>8112912</v>
       </c>
       <c r="G70">
-        <v>7.268680291778669</v>
+        <v>7.631076807096177</v>
       </c>
       <c r="H70">
-        <v>7.233969759941101</v>
+        <v>7.714782190322876</v>
       </c>
       <c r="I70">
-        <v>7.418643474578857</v>
+        <v>7.739953231811524</v>
       </c>
       <c r="L70">
-        <v>37.69898703490152</v>
+        <v>48.91632696612315</v>
       </c>
       <c r="M70">
-        <v>35.96068332775312</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14">
+        <v>48.97880520222973</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B71">
-        <v>6.93937349319458</v>
+        <v>7.598672866821289</v>
       </c>
       <c r="C71">
-        <v>7.076035976409912</v>
+        <v>7.669034957885742</v>
       </c>
       <c r="D71">
-        <v>6.886329174041748</v>
+        <v>7.525117874145508</v>
       </c>
       <c r="E71">
-        <v>7.076035976409912</v>
+        <v>7.54182767868042</v>
       </c>
       <c r="F71">
-        <v>9758496</v>
+        <v>3100608</v>
       </c>
       <c r="G71">
-        <v>7.251167172199691</v>
+        <v>7.622963249967471</v>
       </c>
       <c r="H71">
-        <v>7.202333784103393</v>
+        <v>7.683325839042664</v>
       </c>
       <c r="I71">
-        <v>7.382339843114218</v>
+        <v>7.755196714401245</v>
       </c>
       <c r="L71">
-        <v>44.91687535404911</v>
+        <v>46.21746453012825</v>
       </c>
       <c r="M71">
-        <v>41.19484201936293</v>
-      </c>
-    </row>
-    <row r="72" spans="1:14">
+        <v>47.21672049088464</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B72">
-        <v>7.078752040863037</v>
+        <v>7.541067600250244</v>
       </c>
       <c r="C72">
-        <v>7.24193000793457</v>
+        <v>7.669620513916016</v>
       </c>
       <c r="D72">
-        <v>7.078752040863037</v>
+        <v>7.510485649108887</v>
       </c>
       <c r="E72">
-        <v>7.234819889068604</v>
+        <v>7.581786155700684</v>
       </c>
       <c r="F72">
-        <v>26478624</v>
+        <v>13718160</v>
       </c>
       <c r="G72">
-        <v>7.24968105555141</v>
+        <v>7.619219877761399</v>
       </c>
       <c r="H72">
-        <v>7.181574726104737</v>
+        <v>7.656733632087708</v>
       </c>
       <c r="I72">
-        <v>7.365632931391398</v>
+        <v>7.769883728027343</v>
       </c>
       <c r="L72">
-        <v>52.16088631502587</v>
+        <v>48.43473847256686</v>
       </c>
       <c r="M72">
-        <v>46.65046009501029</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14">
+        <v>48.59640401439865</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B73">
-        <v>7.234909057617188</v>
+        <v>7.580833911895752</v>
       </c>
       <c r="C73">
-        <v>7.486652851104736</v>
+        <v>7.652385711669922</v>
       </c>
       <c r="D73">
-        <v>7.202651500701904</v>
+        <v>7.414277076721191</v>
       </c>
       <c r="E73">
-        <v>7.485913753509521</v>
+        <v>7.420594215393066</v>
       </c>
       <c r="F73">
-        <v>29814016</v>
+        <v>10553776</v>
       </c>
       <c r="G73">
-        <v>7.271156755365783</v>
+        <v>7.601162999364278</v>
       </c>
       <c r="H73">
-        <v>7.182283520698547</v>
+        <v>7.624646115303039</v>
       </c>
       <c r="I73">
-        <v>7.358145252863566</v>
+        <v>7.78202026685079</v>
       </c>
       <c r="L73">
-        <v>61.23124580491412</v>
+        <v>40.80102177469583</v>
       </c>
       <c r="M73">
-        <v>53.92937912566502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14">
+        <v>43.64081747972816</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B74">
-        <v>7.487671375274658</v>
+        <v>7.42133903503418</v>
       </c>
       <c r="C74">
-        <v>7.500977039337158</v>
+        <v>7.676066398620605</v>
       </c>
       <c r="D74">
-        <v>7.390720367431641</v>
+        <v>7.415183067321777</v>
       </c>
       <c r="E74">
-        <v>7.477438449859619</v>
+        <v>7.622009754180908</v>
       </c>
       <c r="F74">
-        <v>7948832</v>
+        <v>6757712</v>
       </c>
       <c r="G74">
-        <v>7.289909636683404</v>
+        <v>7.603058158893062</v>
       </c>
       <c r="H74">
-        <v>7.189147925376892</v>
+        <v>7.601993942260743</v>
       </c>
       <c r="I74">
-        <v>7.352668555577596</v>
+        <v>7.794213660558065</v>
       </c>
       <c r="L74">
-        <v>60.79355181707601</v>
+        <v>51.53801036373741</v>
       </c>
       <c r="M74">
-        <v>53.66323498501259</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14">
+        <v>50.44137490485781</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B75">
-        <v>7.478613376617432</v>
+        <v>7.622009754180908</v>
       </c>
       <c r="C75">
-        <v>7.521772384643555</v>
+        <v>7.658600330352783</v>
       </c>
       <c r="D75">
-        <v>7.331715583801269</v>
+        <v>7.470209121704102</v>
       </c>
       <c r="E75">
-        <v>7.334986209869385</v>
+        <v>7.517751216888428</v>
       </c>
       <c r="F75">
-        <v>0</v>
+        <v>67200</v>
       </c>
       <c r="G75">
-        <v>7.294007506973039</v>
+        <v>7.595302982347186</v>
       </c>
       <c r="H75">
-        <v>7.189973855018616</v>
+        <v>7.583544898033142</v>
       </c>
       <c r="I75">
-        <v>7.342122157414754</v>
+        <v>7.779127327601115</v>
       </c>
       <c r="L75">
-        <v>53.55481852101608</v>
+        <v>46.61464732266903</v>
       </c>
       <c r="M75">
-        <v>49.26267282880176</v>
-      </c>
-    </row>
-    <row r="76" spans="1:14">
+        <v>47.26231881031907</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B76">
-        <v>7.335510730743408</v>
+        <v>7.515416622161865</v>
       </c>
       <c r="C76">
-        <v>7.505361557006836</v>
+        <v>7.602842807769775</v>
       </c>
       <c r="D76">
-        <v>7.328762054443359</v>
+        <v>7.510546684265137</v>
       </c>
       <c r="E76">
-        <v>7.445725917816162</v>
+        <v>7.565895557403564</v>
       </c>
       <c r="F76">
-        <v>844352</v>
+        <v>202960</v>
       </c>
       <c r="G76">
-        <v>7.307800089776959</v>
+        <v>7.592629580079584</v>
       </c>
       <c r="H76">
-        <v>7.189989328384399</v>
+        <v>7.57480628490448</v>
       </c>
       <c r="I76">
-        <v>7.33603048324585</v>
+        <v>7.757580502827962</v>
       </c>
       <c r="L76">
-        <v>57.93518690275496</v>
+        <v>49.13875200180711</v>
       </c>
       <c r="M76">
-        <v>52.52210213614595</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14">
+        <v>48.86500248195157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B77">
-        <v>7.448652744293213</v>
+        <v>7.569803237915039</v>
       </c>
       <c r="C77">
-        <v>7.509983539581299</v>
+        <v>7.590254783630371</v>
       </c>
       <c r="D77">
-        <v>7.310256481170654</v>
+        <v>7.486464977264404</v>
       </c>
       <c r="E77">
-        <v>7.325173854827881</v>
+        <v>7.535741329193115</v>
       </c>
       <c r="F77">
-        <v>4288224</v>
+        <v>0</v>
       </c>
       <c r="G77">
-        <v>7.309379522963407</v>
+        <v>7.587457920908087</v>
       </c>
       <c r="H77">
-        <v>7.190562605857849</v>
+        <v>7.573163080215454</v>
       </c>
       <c r="I77">
-        <v>7.324275255203247</v>
+        <v>7.73073395093282</v>
       </c>
       <c r="L77">
-        <v>51.93637306656553</v>
+        <v>47.5544714093936</v>
       </c>
       <c r="M77">
-        <v>48.84354808353272</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14">
+        <v>47.88348023342579</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B78">
-        <v>7.325955867767334</v>
+        <v>7.537055492401123</v>
       </c>
       <c r="C78">
-        <v>7.34397554397583</v>
+        <v>7.662616729736328</v>
       </c>
       <c r="D78">
-        <v>7.092454433441162</v>
+        <v>7.472658157348633</v>
       </c>
       <c r="E78">
-        <v>7.163831233978272</v>
+        <v>7.515538215637207</v>
       </c>
       <c r="F78">
-        <v>8923616</v>
+        <v>4398064</v>
       </c>
       <c r="G78">
-        <v>7.296147860328395</v>
+        <v>7.580919765883461</v>
       </c>
       <c r="H78">
-        <v>7.193118047714234</v>
+        <v>7.568893361091614</v>
       </c>
       <c r="I78">
-        <v>7.300037813186646</v>
+        <v>7.701573324203491</v>
       </c>
       <c r="L78">
-        <v>44.93149159192213</v>
+        <v>46.42625035818421</v>
       </c>
       <c r="M78">
-        <v>44.36502406779412</v>
-      </c>
-    </row>
-    <row r="79" spans="1:14">
+        <v>47.19942106844167</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B79">
-        <v>7.157337188720703</v>
+        <v>7.516737461090088</v>
       </c>
       <c r="C79">
-        <v>7.157337188720703</v>
+        <v>7.574774265289307</v>
       </c>
       <c r="D79">
-        <v>6.991518497467041</v>
+        <v>7.355121612548828</v>
       </c>
       <c r="E79">
-        <v>7.024489879608154</v>
+        <v>7.516440868377685</v>
       </c>
       <c r="F79">
-        <v>0</v>
+        <v>10159056</v>
       </c>
       <c r="G79">
-        <v>7.271451680262919</v>
+        <v>7.57505804792839</v>
       </c>
       <c r="H79">
-        <v>7.184058237075805</v>
+        <v>7.559816503524781</v>
       </c>
       <c r="I79">
-        <v>7.270975097020467</v>
+        <v>7.678582382202149</v>
       </c>
       <c r="L79">
-        <v>39.72572758623432</v>
+        <v>46.4900608687793</v>
       </c>
       <c r="M79">
-        <v>40.87890245286583</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14">
+        <v>47.23569004529492</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B80">
-        <v>7.02565860748291</v>
+        <v>7.514864921569824</v>
       </c>
       <c r="C80">
-        <v>7.178438663482666</v>
+        <v>7.53422212600708</v>
       </c>
       <c r="D80">
-        <v>6.926911354064941</v>
+        <v>7.407342910766602</v>
       </c>
       <c r="E80">
-        <v>7.116668224334717</v>
+        <v>7.45313835144043</v>
       </c>
       <c r="F80">
-        <v>45861024</v>
+        <v>3018224</v>
       </c>
       <c r="G80">
-        <v>7.257380456996719</v>
+        <v>7.563974439156757</v>
       </c>
       <c r="H80">
-        <v>7.177531409263611</v>
+        <v>7.55036735534668</v>
       </c>
       <c r="I80">
-        <v>7.245482619603475</v>
+        <v>7.652212238311767</v>
       </c>
       <c r="L80">
-        <v>44.51034346112315</v>
+        <v>42.49661913620706</v>
       </c>
       <c r="M80">
-        <v>44.01306875420516</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15">
+        <v>44.90606219323892</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14">
       <c r="A81" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B81">
-        <v>7.11854076385498</v>
+        <v>7.452714920043945</v>
       </c>
       <c r="C81">
-        <v>7.217629909515381</v>
+        <v>7.596371650695801</v>
       </c>
       <c r="D81">
-        <v>7.099129676818848</v>
+        <v>7.452714920043945</v>
       </c>
       <c r="E81">
-        <v>7.140357494354248</v>
+        <v>7.488540649414062</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>8700016</v>
       </c>
       <c r="G81">
-        <v>7.246742005847404</v>
+        <v>7.557116821907421</v>
       </c>
       <c r="H81">
-        <v>7.17469425201416</v>
+        <v>7.53953902721405</v>
       </c>
       <c r="I81">
-        <v>7.226536019643148</v>
+        <v>7.629465103149414</v>
       </c>
       <c r="L81">
-        <v>45.75528183264377</v>
+        <v>45.44500780051466</v>
       </c>
       <c r="M81">
-        <v>44.82262686135502</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15">
+        <v>46.49535149325818</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14">
       <c r="A82" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B82">
-        <v>7.140257358551025</v>
+        <v>7.488630771636963</v>
       </c>
       <c r="C82">
-        <v>7.186277866363525</v>
+        <v>7.590974807739258</v>
       </c>
       <c r="D82">
-        <v>7.08452320098877</v>
+        <v>7.472262382507324</v>
       </c>
       <c r="E82">
-        <v>7.08452320098877</v>
+        <v>7.502413749694824</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>6725392</v>
       </c>
       <c r="G82">
-        <v>7.231994841769346</v>
+        <v>7.552143815342639</v>
       </c>
       <c r="H82">
-        <v>7.172139430046082</v>
+        <v>7.532837486267089</v>
       </c>
       <c r="I82">
-        <v>7.207686758041381</v>
+        <v>7.609091218312582</v>
       </c>
       <c r="L82">
-        <v>43.18617354414621</v>
+        <v>46.65091238086297</v>
       </c>
       <c r="M82">
-        <v>43.23576705423147</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15">
+        <v>47.1388719066578</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14">
       <c r="A83" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B83">
-        <v>7.083779335021973</v>
+        <v>7.501364707946777</v>
       </c>
       <c r="C83">
-        <v>7.216375827789307</v>
+        <v>7.503182888031006</v>
       </c>
       <c r="D83">
-        <v>6.998198509216309</v>
+        <v>7.369210243225098</v>
       </c>
       <c r="E83">
-        <v>7.141175746917725</v>
+        <v>7.370827674865723</v>
       </c>
       <c r="F83">
-        <v>2203840</v>
+        <v>4911568</v>
       </c>
       <c r="G83">
-        <v>7.223738560419199</v>
+        <v>7.535660529844737</v>
       </c>
       <c r="H83">
-        <v>7.172751832008362</v>
+        <v>7.52072160243988</v>
       </c>
       <c r="I83">
-        <v>7.196668020884196</v>
+        <v>7.586040655771892</v>
       </c>
       <c r="L83">
-        <v>46.60822447414461</v>
+        <v>37.74751525263811</v>
       </c>
       <c r="M83">
-        <v>45.34991412001883</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15">
+        <v>41.98127362334817</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14">
       <c r="A84" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B84">
-        <v>7.141897678375244</v>
+        <v>7.371164321899414</v>
       </c>
       <c r="C84">
-        <v>7.141897678375244</v>
+        <v>7.42103910446167</v>
       </c>
       <c r="D84">
-        <v>6.848067283630371</v>
+        <v>7.361203670501709</v>
       </c>
       <c r="E84">
-        <v>7.056498050689697</v>
+        <v>7.392941951751709</v>
       </c>
       <c r="F84">
-        <v>9425888</v>
+        <v>2071248</v>
       </c>
       <c r="G84">
-        <v>7.208534877716517</v>
+        <v>7.522686113654461</v>
       </c>
       <c r="H84">
-        <v>7.161079335212707</v>
+        <v>7.51497163772583</v>
       </c>
       <c r="I84">
-        <v>7.187212944030762</v>
+        <v>7.56330361366272</v>
       </c>
       <c r="L84">
-        <v>42.32176856189075</v>
+        <v>39.91558270651293</v>
       </c>
       <c r="M84">
-        <v>42.78492525300074</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15">
+        <v>43.10786914849242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14">
       <c r="A85" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B85">
-        <v>7.08217716217041</v>
+        <v>7.393252849578857</v>
       </c>
       <c r="C85">
-        <v>7.256207942962646</v>
+        <v>7.452565193176269</v>
       </c>
       <c r="D85">
-        <v>7.019657611846924</v>
+        <v>7.332631587982178</v>
       </c>
       <c r="E85">
-        <v>7.256207942962646</v>
+        <v>7.335696220397949</v>
       </c>
       <c r="F85">
-        <v>16508256</v>
+        <v>1051904</v>
       </c>
       <c r="G85">
-        <v>7.212868792738892</v>
+        <v>7.505687032449323</v>
       </c>
       <c r="H85">
-        <v>7.163721585273743</v>
+        <v>7.500876998901367</v>
       </c>
       <c r="I85">
-        <v>7.185137621561686</v>
+        <v>7.544935750961304</v>
       </c>
       <c r="L85">
-        <v>53.63547033682028</v>
+        <v>36.23999249568819</v>
       </c>
       <c r="M85">
-        <v>49.97178616230774</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15">
+        <v>40.8941812206106</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14">
       <c r="A86" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B86">
-        <v>7.256858348846436</v>
+        <v>7.338150978088379</v>
       </c>
       <c r="C86">
-        <v>8.074015617370605</v>
+        <v>7.363827228546143</v>
       </c>
       <c r="D86">
-        <v>7.199158668518066</v>
+        <v>7.274361133575439</v>
       </c>
       <c r="E86">
-        <v>7.970341205596924</v>
+        <v>7.351038455963135</v>
       </c>
       <c r="F86">
-        <v>128575584</v>
+        <v>1068192</v>
       </c>
       <c r="G86">
-        <v>7.28172992118053</v>
+        <v>7.491628070950578</v>
       </c>
       <c r="H86">
-        <v>7.204084897041321</v>
+        <v>7.489342999458313</v>
       </c>
       <c r="I86">
-        <v>7.202635113398234</v>
+        <v>7.531948105494181</v>
       </c>
       <c r="L86">
-        <v>74.08481281657498</v>
+        <v>37.96240676346275</v>
       </c>
       <c r="M86">
-        <v>66.28188076826559</v>
-      </c>
-      <c r="O86" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15">
+        <v>41.75741946241949</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14">
       <c r="A87" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B87">
-        <v>7.973370552062988</v>
+        <v>7.350860118865967</v>
       </c>
       <c r="C87">
-        <v>8.233393669128418</v>
+        <v>7.368649959564209</v>
       </c>
       <c r="D87">
-        <v>7.961190700531006</v>
+        <v>7.266695976257324</v>
       </c>
       <c r="E87">
-        <v>8.212300300598145</v>
+        <v>7.33064603805542</v>
       </c>
       <c r="F87">
-        <v>78875456</v>
+        <v>0</v>
       </c>
       <c r="G87">
-        <v>7.366327228400313</v>
+        <v>7.476993340687382</v>
       </c>
       <c r="H87">
-        <v>7.25415689945221</v>
+        <v>7.472588992118835</v>
       </c>
       <c r="I87">
-        <v>7.23258817990621</v>
+        <v>7.524016125996908</v>
       </c>
       <c r="L87">
-        <v>77.81454054372134</v>
+        <v>36.48847438641304</v>
       </c>
       <c r="M87">
-        <v>69.86646608974057</v>
-      </c>
-      <c r="O87" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15">
+        <v>40.90232674677287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14">
       <c r="A88" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B88">
-        <v>8.216131210327148</v>
+        <v>7.335141181945801</v>
       </c>
       <c r="C88">
-        <v>8.378267288208008</v>
+        <v>7.377193450927734</v>
       </c>
       <c r="D88">
-        <v>7.883281707763672</v>
+        <v>7.237730979919434</v>
       </c>
       <c r="E88">
-        <v>8.341137886047363</v>
+        <v>7.341565132141113</v>
       </c>
       <c r="F88">
-        <v>98671200</v>
+        <v>839728</v>
       </c>
       <c r="G88">
-        <v>7.4549463790955</v>
+        <v>7.464681685364993</v>
       </c>
       <c r="H88">
-        <v>7.32643985748291</v>
+        <v>7.465556120872497</v>
       </c>
       <c r="I88">
-        <v>7.273535362879435</v>
+        <v>7.515370543797811</v>
       </c>
       <c r="L88">
-        <v>79.57541789171398</v>
+        <v>37.93993891621002</v>
       </c>
       <c r="M88">
-        <v>71.59792037534284</v>
-      </c>
-      <c r="O88" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15">
+        <v>41.59201738291949</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14">
       <c r="A89" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B89">
-        <v>8.340578079223633</v>
+        <v>7.341565132141113</v>
       </c>
       <c r="C89">
-        <v>8.43482494354248</v>
+        <v>7.368809223175049</v>
       </c>
       <c r="D89">
-        <v>8.281900405883789</v>
+        <v>7.289361953735352</v>
       </c>
       <c r="E89">
-        <v>8.39035701751709</v>
+        <v>7.335762500762939</v>
       </c>
       <c r="F89">
-        <v>33044288</v>
+        <v>0</v>
       </c>
       <c r="G89">
-        <v>7.539983709861099</v>
+        <v>7.452961759492079</v>
       </c>
       <c r="H89">
-        <v>7.41086733341217</v>
+        <v>7.465983176231385</v>
       </c>
       <c r="I89">
-        <v>7.313024393717448</v>
+        <v>7.503296693166097</v>
       </c>
       <c r="L89">
-        <v>80.2491546746497</v>
+        <v>37.42855410022459</v>
       </c>
       <c r="M89">
-        <v>72.25382417858985</v>
-      </c>
-      <c r="O89" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15">
+        <v>41.31607017073621</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14">
       <c r="A90" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B90">
-        <v>8.391635894775391</v>
+        <v>7.3359375</v>
       </c>
       <c r="C90">
-        <v>8.566725730895996</v>
+        <v>7.339245796203613</v>
       </c>
       <c r="D90">
-        <v>8.169137954711914</v>
+        <v>7.1780686378479</v>
       </c>
       <c r="E90">
-        <v>8.206169128417969</v>
+        <v>7.193965911865234</v>
       </c>
       <c r="F90">
-        <v>56203584</v>
+        <v>4182496</v>
       </c>
       <c r="G90">
-        <v>7.600546020638996</v>
+        <v>7.429416682435093</v>
       </c>
       <c r="H90">
-        <v>7.47420756816864</v>
+        <v>7.445706081390381</v>
       </c>
       <c r="I90">
-        <v>7.344989871978759</v>
+        <v>7.48835817972819</v>
       </c>
       <c r="L90">
-        <v>70.4636770394727</v>
+        <v>27.30918792758358</v>
       </c>
       <c r="M90">
-        <v>66.10183798520943</v>
-      </c>
-      <c r="O90" t="s">
+        <v>35.17462010313629</v>
+      </c>
+      <c r="N90" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:14">
       <c r="A91" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B91">
-        <v>8.213449478149414</v>
+        <v>7.195205211639404</v>
       </c>
       <c r="C91">
-        <v>8.267623901367188</v>
+        <v>7.232493877410889</v>
       </c>
       <c r="D91">
-        <v>8.091368675231934</v>
+        <v>7.120471954345703</v>
       </c>
       <c r="E91">
-        <v>8.244242668151855</v>
+        <v>7.216941356658935</v>
       </c>
       <c r="F91">
-        <v>26303488</v>
+        <v>7330240</v>
       </c>
       <c r="G91">
-        <v>7.659063897685619</v>
+        <v>7.41010074372817</v>
       </c>
       <c r="H91">
-        <v>7.532617902755737</v>
+        <v>7.429461765289306</v>
       </c>
       <c r="I91">
-        <v>7.379894606272379</v>
+        <v>7.472085984547933</v>
       </c>
       <c r="L91">
-        <v>71.27813542624469</v>
+        <v>30.72337751748918</v>
       </c>
       <c r="M91">
-        <v>66.73239294414024</v>
-      </c>
-      <c r="O91" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15">
+        <v>36.81354383945289</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14">
       <c r="A92" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B92">
-        <v>8.241080284118652</v>
+        <v>7.216864585876465</v>
       </c>
       <c r="C92">
-        <v>8.313003540039062</v>
+        <v>7.216864585876465</v>
       </c>
       <c r="D92">
-        <v>8.069759368896484</v>
+        <v>6.865119457244873</v>
       </c>
       <c r="E92">
-        <v>8.170954704284668</v>
+        <v>6.865119457244873</v>
       </c>
       <c r="F92">
-        <v>0</v>
+        <v>41683504</v>
       </c>
       <c r="G92">
-        <v>7.705599425558259</v>
+        <v>7.360556990411506</v>
       </c>
       <c r="H92">
-        <v>7.579424643516541</v>
+        <v>7.393628430366516</v>
       </c>
       <c r="I92">
-        <v>7.414405775070191</v>
+        <v>7.446375147501628</v>
       </c>
       <c r="L92">
-        <v>67.26168738714198</v>
+        <v>16.98238227325931</v>
       </c>
       <c r="M92">
-        <v>64.25470936854738</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15">
+        <v>25.98130441856122</v>
+      </c>
+      <c r="N92" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14">
       <c r="A93" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B93">
-        <v>8.166200637817383</v>
+        <v>6.867046356201172</v>
       </c>
       <c r="C93">
-        <v>8.206326484680176</v>
+        <v>7.047632694244385</v>
       </c>
       <c r="D93">
-        <v>8.05112361907959</v>
+        <v>6.863233089447021</v>
       </c>
       <c r="E93">
-        <v>8.113630294799805</v>
+        <v>7.007729053497314</v>
       </c>
       <c r="F93">
-        <v>0</v>
+        <v>23057984</v>
       </c>
       <c r="G93">
-        <v>7.742693140943854</v>
+        <v>7.328481723419307</v>
       </c>
       <c r="H93">
-        <v>7.610810470581055</v>
+        <v>7.372985172271728</v>
       </c>
       <c r="I93">
-        <v>7.447229194641113</v>
+        <v>7.426194604237875</v>
       </c>
       <c r="L93">
-        <v>64.08411348897063</v>
+        <v>31.04573230571587</v>
       </c>
       <c r="M93">
-        <v>62.30607153673176</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15">
+        <v>34.40653442321936</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14">
       <c r="A94" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B94">
-        <v>8.10886287689209</v>
+        <v>7.007309913635254</v>
       </c>
       <c r="C94">
-        <v>8.189996719360352</v>
+        <v>7.037002563476562</v>
       </c>
       <c r="D94">
-        <v>8.052693367004395</v>
+        <v>6.846107959747314</v>
       </c>
       <c r="E94">
-        <v>8.062344551086426</v>
+        <v>6.931689739227295</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>5801024</v>
       </c>
       <c r="G94">
-        <v>7.771752360047724</v>
+        <v>7.292409724856396</v>
       </c>
       <c r="H94">
-        <v>7.640055775642395</v>
+        <v>7.338469171524048</v>
       </c>
       <c r="I94">
-        <v>7.472975746790568</v>
+        <v>7.406986220677694</v>
       </c>
       <c r="L94">
-        <v>61.17531455208114</v>
+        <v>28.18200074692759</v>
       </c>
       <c r="M94">
-        <v>60.53722392585678</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15">
+        <v>32.29567720103154</v>
+      </c>
+      <c r="N94" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14">
       <c r="A95" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B95">
-        <v>8.062664985656738</v>
+        <v>6.931689739227295</v>
       </c>
       <c r="C95">
-        <v>8.11075496673584</v>
+        <v>7.041850090026856</v>
       </c>
       <c r="D95">
-        <v>7.978395938873291</v>
+        <v>6.931689739227295</v>
       </c>
       <c r="E95">
-        <v>8.075053215026855</v>
+        <v>6.995583057403564</v>
       </c>
       <c r="F95">
-        <v>1376096</v>
+        <v>3430192</v>
       </c>
       <c r="G95">
-        <v>7.799325165045826</v>
+        <v>7.265425482360684</v>
       </c>
       <c r="H95">
-        <v>7.677059125900269</v>
+        <v>7.312360763549805</v>
       </c>
       <c r="I95">
-        <v>7.502032089233398</v>
+        <v>7.386252689361572</v>
       </c>
       <c r="L95">
-        <v>61.66045340266024</v>
+        <v>33.94203860296492</v>
       </c>
       <c r="M95">
-        <v>60.83395137963659</v>
-      </c>
-    </row>
-    <row r="96" spans="1:15">
+        <v>35.85667209521129</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14">
       <c r="A96" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B96">
-        <v>8.073393821716309</v>
+        <v>6.995460987091064</v>
       </c>
       <c r="C96">
-        <v>8.197699546813965</v>
+        <v>7.02116584777832</v>
       </c>
       <c r="D96">
-        <v>7.872086048126221</v>
+        <v>6.961908340454102</v>
       </c>
       <c r="E96">
-        <v>7.88673210144043</v>
+        <v>6.998867034912109</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>717680</v>
       </c>
       <c r="G96">
-        <v>7.807271250172608</v>
+        <v>7.241192896228996</v>
       </c>
       <c r="H96">
-        <v>7.699109435081482</v>
+        <v>7.284009337425232</v>
       </c>
       <c r="I96">
-        <v>7.526153993606568</v>
+        <v>7.366824309031169</v>
       </c>
       <c r="L96">
-        <v>51.03033364405224</v>
+        <v>34.24697203809807</v>
       </c>
       <c r="M96">
-        <v>54.31639447313589</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13">
+        <v>36.04286937768772</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14">
       <c r="A97" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B97">
-        <v>7.88680362701416</v>
+        <v>6.9988694190979</v>
       </c>
       <c r="C97">
-        <v>7.938028812408447</v>
+        <v>6.9988694190979</v>
       </c>
       <c r="D97">
-        <v>7.604939460754394</v>
+        <v>6.790624141693115</v>
       </c>
       <c r="E97">
-        <v>7.740667819976807</v>
+        <v>6.800809383392334</v>
       </c>
       <c r="F97">
-        <v>24632224</v>
+        <v>9134592</v>
       </c>
       <c r="G97">
-        <v>7.80121639288208</v>
+        <v>7.201158031425662</v>
       </c>
       <c r="H97">
-        <v>7.719884133338928</v>
+        <v>7.247262740135193</v>
       </c>
       <c r="I97">
-        <v>7.543814245859782</v>
+        <v>7.337993748982748</v>
       </c>
       <c r="L97">
-        <v>44.35769041911971</v>
+        <v>26.07899219730722</v>
       </c>
       <c r="M97">
-        <v>49.85493779185909</v>
-      </c>
-    </row>
-    <row r="98" spans="1:13">
+        <v>30.32539252285422</v>
+      </c>
+      <c r="N97" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14">
       <c r="A98" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B98">
-        <v>7.744359016418457</v>
+        <v>6.799653053283691</v>
       </c>
       <c r="C98">
-        <v>7.806610107421875</v>
+        <v>6.865964889526367</v>
       </c>
       <c r="D98">
-        <v>7.419298648834228</v>
+        <v>6.595669269561768</v>
       </c>
       <c r="E98">
-        <v>7.568605422973633</v>
+        <v>6.844660758972168</v>
       </c>
       <c r="F98">
-        <v>27419744</v>
+        <v>10584432</v>
       </c>
       <c r="G98">
-        <v>7.780069941072221</v>
+        <v>7.168749188475345</v>
       </c>
       <c r="H98">
-        <v>7.740122842788696</v>
+        <v>7.213718867301941</v>
       </c>
       <c r="I98">
-        <v>7.566251802444458</v>
+        <v>7.316741689046224</v>
       </c>
       <c r="L98">
-        <v>37.80636870549618</v>
+        <v>30.22415598262335</v>
       </c>
       <c r="M98">
-        <v>45.15023309379431</v>
-      </c>
-    </row>
-    <row r="99" spans="1:13">
+        <v>32.86468298231875</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14">
       <c r="A99" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B99">
-        <v>7.567115306854248</v>
+        <v>6.844893455505371</v>
       </c>
       <c r="C99">
-        <v>7.634119033813477</v>
+        <v>6.905531883239746</v>
       </c>
       <c r="D99">
-        <v>7.412960529327393</v>
+        <v>6.816912651062012</v>
       </c>
       <c r="E99">
-        <v>7.600932598114014</v>
+        <v>6.873364925384521</v>
       </c>
       <c r="F99">
-        <v>11041472</v>
+        <v>2957168</v>
       </c>
       <c r="G99">
-        <v>7.76378472807602</v>
+        <v>7.141896073648907</v>
       </c>
       <c r="H99">
-        <v>7.768944978713989</v>
+        <v>7.181565070152283</v>
       </c>
       <c r="I99">
-        <v>7.596222639083862</v>
+        <v>7.301613140106201</v>
       </c>
       <c r="L99">
-        <v>39.68910747817767</v>
+        <v>32.99122342913225</v>
       </c>
       <c r="M99">
-        <v>46.17789751252681</v>
-      </c>
-    </row>
-    <row r="100" spans="1:13">
+        <v>34.54626738114542</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14">
       <c r="A100" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B100">
-        <v>7.600135326385498</v>
+        <v>6.874999523162842</v>
       </c>
       <c r="C100">
-        <v>7.739674091339111</v>
+        <v>6.881649494171143</v>
       </c>
       <c r="D100">
-        <v>7.588416576385498</v>
+        <v>6.783598899841309</v>
       </c>
       <c r="E100">
-        <v>7.697978019714355</v>
+        <v>6.825575828552246</v>
       </c>
       <c r="F100">
-        <v>1577472</v>
+        <v>2135792</v>
       </c>
       <c r="G100">
-        <v>7.757802300043142</v>
+        <v>7.113139687731028</v>
       </c>
       <c r="H100">
-        <v>7.798010468482971</v>
+        <v>7.150186944007873</v>
       </c>
       <c r="I100">
-        <v>7.621509758631388</v>
+        <v>7.2758154074351</v>
       </c>
       <c r="L100">
-        <v>45.28314174339034</v>
+        <v>30.71018068097387</v>
       </c>
       <c r="M100">
-        <v>49.2517937831369</v>
-      </c>
-    </row>
-    <row r="101" spans="1:13">
+        <v>33.06149892641861</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14">
       <c r="A101" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B101">
-        <v>7.696512222290039</v>
+        <v>6.825985908508301</v>
       </c>
       <c r="C101">
-        <v>7.737850189208984</v>
+        <v>6.942978382110596</v>
       </c>
       <c r="D101">
-        <v>7.604259967803955</v>
+        <v>6.825985908508301</v>
       </c>
       <c r="E101">
-        <v>7.642121315002441</v>
+        <v>6.911911010742188</v>
       </c>
       <c r="F101">
-        <v>0</v>
+        <v>1110448</v>
       </c>
       <c r="G101">
-        <v>7.747285846857624</v>
+        <v>7.094846171641134</v>
       </c>
       <c r="H101">
-        <v>7.823098659515381</v>
+        <v>7.12135546207428</v>
       </c>
       <c r="I101">
-        <v>7.640379269917806</v>
+        <v>7.254818185170492</v>
       </c>
       <c r="L101">
-        <v>42.71754478394834</v>
+        <v>39.24731284325919</v>
       </c>
       <c r="M101">
-        <v>47.56785215091593</v>
-      </c>
-    </row>
-    <row r="102" spans="1:13">
+        <v>38.22686290329125</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14">
       <c r="A102" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B102">
-        <v>7.644447326660156</v>
+        <v>6.910614967346191</v>
       </c>
       <c r="C102">
-        <v>7.740000247955322</v>
+        <v>6.918447017669678</v>
       </c>
       <c r="D102">
-        <v>7.597274780273437</v>
+        <v>6.805921077728272</v>
       </c>
       <c r="E102">
-        <v>7.70510721206665</v>
+        <v>6.852013111114502</v>
       </c>
       <c r="F102">
         <v>0</v>
       </c>
       <c r="G102">
-        <v>7.74345142551299</v>
+        <v>7.072770438865985</v>
       </c>
       <c r="H102">
-        <v>7.854127860069275</v>
+        <v>7.088835430145264</v>
       </c>
       <c r="I102">
-        <v>7.656055514017741</v>
+        <v>7.230492417017619</v>
       </c>
       <c r="L102">
-        <v>46.55859743343473</v>
+        <v>35.80418842572874</v>
       </c>
       <c r="M102">
-        <v>49.65805143688899</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13">
+        <v>36.14305231726384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14">
       <c r="A103" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B103">
-        <v>7.70510721206665</v>
+        <v>6.85215425491333</v>
       </c>
       <c r="C103">
-        <v>7.724812507629394</v>
+        <v>6.875782489776611</v>
       </c>
       <c r="D103">
-        <v>7.633092403411865</v>
+        <v>6.815442085266113</v>
       </c>
       <c r="E103">
-        <v>7.636444568634033</v>
+        <v>6.864913940429688</v>
       </c>
       <c r="F103">
         <v>0</v>
       </c>
       <c r="G103">
-        <v>7.733723529433084</v>
+        <v>7.053874393553595</v>
       </c>
       <c r="H103">
-        <v>7.878891301155091</v>
+        <v>7.063539743423462</v>
       </c>
       <c r="I103">
-        <v>7.661073207855225</v>
+        <v>7.211969741185507</v>
       </c>
       <c r="L103">
-        <v>43.02077080945534</v>
+        <v>37.14039316406491</v>
       </c>
       <c r="M103">
-        <v>47.43792546062484</v>
-      </c>
-    </row>
-    <row r="104" spans="1:13">
+        <v>36.94037058423628</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14">
       <c r="A104" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B104">
-        <v>7.635578632354736</v>
+        <v>6.864136219024658</v>
       </c>
       <c r="C104">
-        <v>7.6620192527771</v>
+        <v>6.88116455078125</v>
       </c>
       <c r="D104">
-        <v>7.607147216796875</v>
+        <v>6.813065052032471</v>
       </c>
       <c r="E104">
-        <v>7.613145351409912</v>
+        <v>6.849454402923584</v>
       </c>
       <c r="F104">
-        <v>4947824</v>
+        <v>0</v>
       </c>
       <c r="G104">
-        <v>7.722761876885523</v>
+        <v>7.035290758041775</v>
       </c>
       <c r="H104">
-        <v>7.906723666191101</v>
+        <v>7.036365365982055</v>
       </c>
       <c r="I104">
-        <v>7.665596771240234</v>
+        <v>7.186217896143595</v>
       </c>
       <c r="L104">
-        <v>41.80802537950662</v>
+        <v>36.12665577362836</v>
       </c>
       <c r="M104">
-        <v>46.6753531161903</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13">
+        <v>36.35457488319925</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14">
       <c r="A105" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B105">
-        <v>7.613140106201172</v>
+        <v>6.849424839019775</v>
       </c>
       <c r="C105">
-        <v>7.617435455322266</v>
+        <v>6.91602087020874</v>
       </c>
       <c r="D105">
-        <v>7.507582664489746</v>
+        <v>6.84667444229126</v>
       </c>
       <c r="E105">
-        <v>7.507941246032715</v>
+        <v>6.898280143737793</v>
       </c>
       <c r="F105">
-        <v>0</v>
+        <v>856512</v>
       </c>
       <c r="G105">
-        <v>7.703232728626176</v>
+        <v>7.022835247650503</v>
       </c>
       <c r="H105">
-        <v>7.919310331344604</v>
+        <v>7.014494562149048</v>
       </c>
       <c r="I105">
-        <v>7.671361939112345</v>
+        <v>7.165568860371907</v>
       </c>
       <c r="L105">
-        <v>36.57113189062065</v>
+        <v>41.77348474442416</v>
       </c>
       <c r="M105">
-        <v>43.2913371500638</v>
-      </c>
-    </row>
-    <row r="106" spans="1:13">
+        <v>39.61170229221847</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14">
       <c r="A106" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B106">
-        <v>7.509918212890625</v>
+        <v>6.900288581848145</v>
       </c>
       <c r="C106">
-        <v>7.657936573028564</v>
+        <v>6.964543342590332</v>
       </c>
       <c r="D106">
-        <v>7.47204065322876</v>
+        <v>6.867940425872803</v>
       </c>
       <c r="E106">
-        <v>7.617588996887207</v>
+        <v>6.916350364685059</v>
       </c>
       <c r="F106">
-        <v>280736</v>
+        <v>1023552</v>
       </c>
       <c r="G106">
-        <v>7.695446934831724</v>
+        <v>7.013154803744554</v>
       </c>
       <c r="H106">
-        <v>7.901672720909119</v>
+        <v>6.992760157585144</v>
       </c>
       <c r="I106">
-        <v>7.677090708414713</v>
+        <v>7.143917353947957</v>
       </c>
       <c r="L106">
-        <v>44.69394284182589</v>
+        <v>43.84064540231851</v>
       </c>
       <c r="M106">
-        <v>47.55879442535191</v>
-      </c>
-    </row>
-    <row r="107" spans="1:13">
+        <v>40.81882234157489</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14">
       <c r="A107" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B107">
-        <v>7.616969108581543</v>
+        <v>6.916549205780029</v>
       </c>
       <c r="C107">
-        <v>7.688344478607178</v>
+        <v>6.917152404785156</v>
       </c>
       <c r="D107">
-        <v>7.580238342285156</v>
+        <v>6.859640598297119</v>
       </c>
       <c r="E107">
-        <v>7.581718444824219</v>
+        <v>6.898721694946289</v>
       </c>
       <c r="F107">
-        <v>0</v>
+        <v>137624</v>
       </c>
       <c r="G107">
-        <v>7.685107981194678</v>
+        <v>7.002751793853802</v>
       </c>
       <c r="H107">
-        <v>7.870143628120422</v>
+        <v>6.971163940429688</v>
       </c>
       <c r="I107">
-        <v>7.685642194747925</v>
+        <v>7.12268336613973</v>
       </c>
       <c r="L107">
-        <v>42.68226825011219</v>
+        <v>42.19650641142282</v>
       </c>
       <c r="M107">
-        <v>46.33047989376414</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13">
+        <v>39.97922167818862</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B108">
-        <v>7.582293510437012</v>
+        <v>6.898622512817383</v>
       </c>
       <c r="C108">
-        <v>7.668272972106934</v>
+        <v>6.91950273513794</v>
       </c>
       <c r="D108">
-        <v>7.548913478851318</v>
+        <v>6.890007495880127</v>
       </c>
       <c r="E108">
-        <v>7.665726184844971</v>
+        <v>6.896854877471924</v>
       </c>
       <c r="F108">
-        <v>1491328</v>
+        <v>260368</v>
       </c>
       <c r="G108">
-        <v>7.683345999708341</v>
+        <v>6.993124801455449</v>
       </c>
       <c r="H108">
-        <v>7.836373043060303</v>
+        <v>6.948928427696228</v>
       </c>
       <c r="I108">
-        <v>7.702372026443482</v>
+        <v>7.102060588200887</v>
       </c>
       <c r="L108">
-        <v>48.75887936548077</v>
+        <v>42.00881824457925</v>
       </c>
       <c r="M108">
-        <v>49.61268625356112</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13">
+        <v>39.88566041238727</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14">
       <c r="A109" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B109">
-        <v>7.666211128234863</v>
+        <v>6.897097110748291</v>
       </c>
       <c r="C109">
-        <v>7.678668022155762</v>
+        <v>6.960866928100586</v>
       </c>
       <c r="D109">
-        <v>7.482222557067871</v>
+        <v>6.868822574615479</v>
       </c>
       <c r="E109">
-        <v>7.482222557067871</v>
+        <v>6.884959220886231</v>
       </c>
       <c r="F109">
-        <v>0</v>
+        <v>2912432</v>
       </c>
       <c r="G109">
-        <v>7.665062050377389</v>
+        <v>6.983291566858247</v>
       </c>
       <c r="H109">
-        <v>7.790966320037842</v>
+        <v>6.926388263702393</v>
       </c>
       <c r="I109">
-        <v>7.717629782358805</v>
+        <v>7.081011199951172</v>
       </c>
       <c r="L109">
-        <v>38.68138913646533</v>
+        <v>40.71071797078996</v>
       </c>
       <c r="M109">
-        <v>43.37293824744859</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13">
+        <v>39.25523947419644</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14">
       <c r="A110" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B110">
-        <v>7.482008934020996</v>
+        <v>6.884636878967285</v>
       </c>
       <c r="C110">
-        <v>7.533543586730957</v>
+        <v>6.906099796295166</v>
       </c>
       <c r="D110">
-        <v>7.327221393585205</v>
+        <v>6.860935688018799</v>
       </c>
       <c r="E110">
-        <v>7.327221393585205</v>
+        <v>6.898938655853272</v>
       </c>
       <c r="F110">
-        <v>11533360</v>
+        <v>0</v>
       </c>
       <c r="G110">
-        <v>7.634349263396282</v>
+        <v>6.97562312040325</v>
       </c>
       <c r="H110">
-        <v>7.747018933296204</v>
+        <v>6.911636900901795</v>
       </c>
       <c r="I110">
-        <v>7.724648221333822</v>
+        <v>7.062537876764933</v>
       </c>
       <c r="L110">
-        <v>32.33148524678141</v>
+        <v>43.03778229809985</v>
       </c>
       <c r="M110">
-        <v>38.92022582576004</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13">
+        <v>40.44650071073004</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14">
       <c r="A111" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B111">
-        <v>7.325548648834228</v>
+        <v>6.899491310119629</v>
       </c>
       <c r="C111">
-        <v>7.635625839233398</v>
+        <v>6.904166221618652</v>
       </c>
       <c r="D111">
-        <v>7.320394992828369</v>
+        <v>6.808240413665772</v>
       </c>
       <c r="E111">
-        <v>7.599507808685303</v>
+        <v>6.808240413665772</v>
       </c>
       <c r="F111">
-        <v>8112912</v>
+        <v>1286192</v>
       </c>
       <c r="G111">
-        <v>7.631181858422556</v>
+        <v>6.960406510699842</v>
       </c>
       <c r="H111">
-        <v>7.714782190322876</v>
+        <v>6.891201853752136</v>
       </c>
       <c r="I111">
-        <v>7.739953231811524</v>
+        <v>7.03986120223999</v>
       </c>
       <c r="L111">
-        <v>48.9070866704967</v>
+        <v>33.45391278021268</v>
       </c>
       <c r="M111">
-        <v>48.85359575592418</v>
-      </c>
-    </row>
-    <row r="112" spans="1:13">
+        <v>35.57229349615237</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14">
       <c r="A112" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B112">
-        <v>7.598672866821289</v>
+        <v>6.808433532714844</v>
       </c>
       <c r="C112">
-        <v>7.669034957885742</v>
+        <v>6.835376739501953</v>
       </c>
       <c r="D112">
-        <v>7.525117874145508</v>
+        <v>6.691895008087158</v>
       </c>
       <c r="E112">
-        <v>7.54182767868042</v>
+        <v>6.725828170776367</v>
       </c>
       <c r="F112">
-        <v>3100608</v>
+        <v>10106280</v>
       </c>
       <c r="G112">
-        <v>7.623058751173271</v>
+        <v>6.939081207070435</v>
       </c>
       <c r="H112">
-        <v>7.683325839042664</v>
+        <v>6.884237289428711</v>
       </c>
       <c r="I112">
-        <v>7.755196714401245</v>
+        <v>7.013975016276041</v>
       </c>
       <c r="L112">
-        <v>46.20955110435885</v>
+        <v>27.2507305035773</v>
       </c>
       <c r="M112">
-        <v>47.10592483058709</v>
-      </c>
-    </row>
-    <row r="113" spans="1:13">
+        <v>31.81996942534434</v>
+      </c>
+      <c r="N112" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14">
       <c r="A113" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B113">
-        <v>7.541067600250244</v>
+        <v>6.723674774169922</v>
       </c>
       <c r="C113">
-        <v>7.669620513916016</v>
+        <v>6.749286651611328</v>
       </c>
       <c r="D113">
-        <v>7.510485649108887</v>
+        <v>6.660932064056396</v>
       </c>
       <c r="E113">
-        <v>7.581786155700684</v>
+        <v>6.714643478393555</v>
       </c>
       <c r="F113">
-        <v>13718160</v>
+        <v>5041264</v>
       </c>
       <c r="G113">
-        <v>7.619306697039399</v>
+        <v>6.918677777190719</v>
       </c>
       <c r="H113">
-        <v>7.656733632087708</v>
+        <v>6.869583010673523</v>
       </c>
       <c r="I113">
-        <v>7.769883728027343</v>
+        <v>6.992102209726969</v>
       </c>
       <c r="L113">
-        <v>48.4265074818733</v>
+        <v>26.50048016818293</v>
       </c>
       <c r="M113">
-        <v>48.48091208514312</v>
-      </c>
-    </row>
-    <row r="114" spans="1:13">
+        <v>31.33684309290004</v>
+      </c>
+      <c r="N113" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14">
       <c r="A114" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B114">
-        <v>7.580833911895752</v>
+        <v>6.714789390563965</v>
       </c>
       <c r="C114">
-        <v>7.652385711669922</v>
+        <v>6.791878700256348</v>
       </c>
       <c r="D114">
-        <v>7.414277076721191</v>
+        <v>6.559804916381836</v>
       </c>
       <c r="E114">
-        <v>7.420594215393066</v>
+        <v>6.589981079101562</v>
       </c>
       <c r="F114">
-        <v>10553776</v>
+        <v>38236464</v>
       </c>
       <c r="G114">
-        <v>7.601241925980641</v>
+        <v>6.888796259182613</v>
       </c>
       <c r="H114">
-        <v>7.624646115303039</v>
+        <v>6.852497577667236</v>
       </c>
       <c r="I114">
-        <v>7.78202026685079</v>
+        <v>6.965336847305298</v>
       </c>
       <c r="L114">
-        <v>40.79595473682329</v>
+        <v>19.69978282515422</v>
       </c>
       <c r="M114">
-        <v>43.56149647997264</v>
-      </c>
-    </row>
-    <row r="115" spans="1:13">
+        <v>26.50620384913083</v>
+      </c>
+      <c r="N114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14">
       <c r="A115" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B115">
-        <v>7.42133903503418</v>
+        <v>6.588070869445801</v>
       </c>
       <c r="C115">
-        <v>7.676066398620605</v>
+        <v>6.654989719390869</v>
       </c>
       <c r="D115">
-        <v>7.415183067321777</v>
+        <v>6.47889518737793</v>
       </c>
       <c r="E115">
-        <v>7.622009754180908</v>
+        <v>6.517179489135742</v>
       </c>
       <c r="F115">
-        <v>6757712</v>
+        <v>24539696</v>
       </c>
       <c r="G115">
-        <v>7.603129910362483</v>
+        <v>6.85501291645108</v>
       </c>
       <c r="H115">
-        <v>7.601993942260743</v>
+        <v>6.828577399253845</v>
       </c>
       <c r="I115">
-        <v>7.794213660558065</v>
+        <v>6.938052956263224</v>
       </c>
       <c r="L115">
-        <v>51.53171236410463</v>
+        <v>16.85759247439471</v>
       </c>
       <c r="M115">
-        <v>50.34205967174791</v>
-      </c>
-    </row>
-    <row r="116" spans="1:13">
+        <v>24.16358911320158</v>
+      </c>
+      <c r="N115" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14">
       <c r="A116" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B116">
-        <v>7.622009754180908</v>
+        <v>6.519047737121582</v>
       </c>
       <c r="C116">
-        <v>7.658600330352783</v>
+        <v>6.545785427093506</v>
       </c>
       <c r="D116">
-        <v>7.470209121704102</v>
+        <v>6.320576667785645</v>
       </c>
       <c r="E116">
-        <v>7.517751216888428</v>
+        <v>6.362922191619873</v>
       </c>
       <c r="F116">
-        <v>67200</v>
+        <v>48375520</v>
       </c>
       <c r="G116">
-        <v>7.595368210955751</v>
+        <v>6.810277396011879</v>
       </c>
       <c r="H116">
-        <v>7.583544898033142</v>
+        <v>6.796780157089233</v>
       </c>
       <c r="I116">
-        <v>7.779127327601115</v>
+        <v>6.905115747451783</v>
       </c>
       <c r="L116">
-        <v>46.60984247253257</v>
+        <v>12.54365977881307</v>
       </c>
       <c r="M116">
-        <v>47.18217267180214</v>
-      </c>
-    </row>
-    <row r="117" spans="1:13">
+        <v>20.10832790383967</v>
+      </c>
+      <c r="N116" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14">
       <c r="A117" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B117">
-        <v>7.515416622161865</v>
+        <v>6.364848136901856</v>
       </c>
       <c r="C117">
-        <v>7.602842807769775</v>
+        <v>6.480504989624023</v>
       </c>
       <c r="D117">
-        <v>7.510546684265137</v>
+        <v>6.327642440795898</v>
       </c>
       <c r="E117">
-        <v>7.565895557403564</v>
+        <v>6.328632354736328</v>
       </c>
       <c r="F117">
-        <v>202960</v>
+        <v>28453536</v>
       </c>
       <c r="G117">
-        <v>7.592688878814643</v>
+        <v>6.766491483168647</v>
       </c>
       <c r="H117">
-        <v>7.57480628490448</v>
+        <v>6.773171305656433</v>
       </c>
       <c r="I117">
-        <v>7.757580502827962</v>
+        <v>6.871715291341146</v>
       </c>
       <c r="L117">
-        <v>49.13373878493389</v>
+        <v>11.7892028067293</v>
       </c>
       <c r="M117">
-        <v>48.7809585958484</v>
-      </c>
-    </row>
-    <row r="118" spans="1:13">
+        <v>19.33166762424465</v>
+      </c>
+      <c r="N117" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14">
       <c r="A118" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B118">
-        <v>7.569803237915039</v>
+        <v>6.332935333251953</v>
       </c>
       <c r="C118">
-        <v>7.590254783630371</v>
+        <v>6.441404819488525</v>
       </c>
       <c r="D118">
-        <v>7.486464977264404</v>
+        <v>6.332935333251953</v>
       </c>
       <c r="E118">
-        <v>7.535741329193115</v>
+        <v>6.422460556030273</v>
       </c>
       <c r="F118">
-        <v>0</v>
+        <v>2747344</v>
       </c>
       <c r="G118">
-        <v>7.58751182884905</v>
+        <v>6.735215944337885</v>
       </c>
       <c r="H118">
-        <v>7.573163080215454</v>
+        <v>6.752061295509338</v>
       </c>
       <c r="I118">
-        <v>7.73073395093282</v>
+        <v>6.841078472137451</v>
       </c>
       <c r="L118">
-        <v>47.5498843340937</v>
+        <v>25.57011732141136</v>
       </c>
       <c r="M118">
-        <v>47.80491329039087</v>
-      </c>
-    </row>
-    <row r="119" spans="1:13">
+        <v>27.57488895838205</v>
+      </c>
+      <c r="N118" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14">
       <c r="A119" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B119">
-        <v>7.537055492401123</v>
+        <v>6.420079708099365</v>
       </c>
       <c r="C119">
-        <v>7.662616729736328</v>
+        <v>6.44318151473999</v>
       </c>
       <c r="D119">
-        <v>7.472658157348633</v>
+        <v>6.296229839324951</v>
       </c>
       <c r="E119">
-        <v>7.515538215637207</v>
+        <v>6.296229839324951</v>
       </c>
       <c r="F119">
-        <v>4398064</v>
+        <v>3847488</v>
       </c>
       <c r="G119">
-        <v>7.580968773102518</v>
+        <v>6.695308116609437</v>
       </c>
       <c r="H119">
-        <v>7.568893361091614</v>
+        <v>6.72320454120636</v>
       </c>
       <c r="I119">
-        <v>7.701573324203491</v>
+        <v>6.806427383422852</v>
       </c>
       <c r="L119">
-        <v>46.42195601035863</v>
+        <v>20.68025746252452</v>
       </c>
       <c r="M119">
-        <v>47.1245797104688</v>
-      </c>
-    </row>
-    <row r="120" spans="1:13">
+        <v>24.01887908363931</v>
+      </c>
+      <c r="N119" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14">
       <c r="A120" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B120">
-        <v>7.516737461090088</v>
+        <v>6.30171537399292</v>
       </c>
       <c r="C120">
-        <v>7.574774265289307</v>
+        <v>6.327953338623047</v>
       </c>
       <c r="D120">
-        <v>7.355121612548828</v>
+        <v>6.001399993896484</v>
       </c>
       <c r="E120">
-        <v>7.516440868377685</v>
+        <v>6.08136510848999</v>
       </c>
       <c r="F120">
-        <v>10159056</v>
+        <v>29152832</v>
       </c>
       <c r="G120">
-        <v>7.575102599945716</v>
+        <v>6.639495115871305</v>
       </c>
       <c r="H120">
-        <v>7.559816503524781</v>
+        <v>6.685994005203247</v>
       </c>
       <c r="I120">
-        <v>7.678582382202149</v>
+        <v>6.76934068997701</v>
       </c>
       <c r="L120">
-        <v>46.48576124529895</v>
+        <v>15.13708351583148</v>
       </c>
       <c r="M120">
-        <v>47.16076174669981</v>
-      </c>
-    </row>
-    <row r="121" spans="1:13">
+        <v>19.42657879189421</v>
+      </c>
+      <c r="N120" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14">
       <c r="A121" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B121">
-        <v>7.514864921569824</v>
+        <v>6.083712577819824</v>
       </c>
       <c r="C121">
-        <v>7.53422212600708</v>
+        <v>6.221940994262695</v>
       </c>
       <c r="D121">
-        <v>7.407342910766602</v>
+        <v>6.004881858825684</v>
       </c>
       <c r="E121">
-        <v>7.45313835144043</v>
+        <v>6.20815896987915</v>
       </c>
       <c r="F121">
-        <v>3018224</v>
+        <v>10595840</v>
       </c>
       <c r="G121">
-        <v>7.564014940990689</v>
+        <v>6.600282738962927</v>
       </c>
       <c r="H121">
-        <v>7.55036735534668</v>
+        <v>6.650806403160095</v>
       </c>
       <c r="I121">
-        <v>7.652212238311767</v>
+        <v>6.735714610417684</v>
       </c>
       <c r="L121">
-        <v>42.49328316398415</v>
+        <v>27.95686909001378</v>
       </c>
       <c r="M121">
-        <v>44.84325373208731</v>
-      </c>
-    </row>
-    <row r="122" spans="1:13">
+        <v>28.15600673360631</v>
+      </c>
+      <c r="N121" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14">
       <c r="A122" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B122">
-        <v>7.452714920043945</v>
+        <v>6.215103626251221</v>
       </c>
       <c r="C122">
-        <v>7.596371650695801</v>
+        <v>6.328606605529785</v>
       </c>
       <c r="D122">
-        <v>7.452714920043945</v>
+        <v>6.199544906616211</v>
       </c>
       <c r="E122">
-        <v>7.488540649414062</v>
+        <v>6.21003532409668</v>
       </c>
       <c r="F122">
-        <v>8700016</v>
+        <v>0</v>
       </c>
       <c r="G122">
-        <v>7.55715364175645</v>
+        <v>6.564805701247813</v>
       </c>
       <c r="H122">
-        <v>7.53953902721405</v>
+        <v>6.618707513809204</v>
       </c>
       <c r="I122">
-        <v>7.629465103149414</v>
+        <v>6.713878472646077</v>
       </c>
       <c r="L122">
-        <v>45.44142651699976</v>
+        <v>28.13760050320015</v>
       </c>
       <c r="M122">
-        <v>46.42875761583154</v>
-      </c>
-    </row>
-    <row r="123" spans="1:13">
+        <v>28.27983976774766</v>
+      </c>
+      <c r="N122" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14">
       <c r="A123" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B123">
-        <v>7.488630771636963</v>
+        <v>6.206955909729004</v>
       </c>
       <c r="C123">
-        <v>7.590974807739258</v>
+        <v>6.358676433563232</v>
       </c>
       <c r="D123">
-        <v>7.472262382507324</v>
+        <v>6.162425994873047</v>
       </c>
       <c r="E123">
-        <v>7.502413749694824</v>
+        <v>6.353961944580078</v>
       </c>
       <c r="F123">
-        <v>6725392</v>
+        <v>1755328</v>
       </c>
       <c r="G123">
-        <v>7.552177287932666</v>
+        <v>6.545638087005292</v>
       </c>
       <c r="H123">
-        <v>7.532837486267089</v>
+        <v>6.593159914016724</v>
       </c>
       <c r="I123">
-        <v>7.609091218312582</v>
+        <v>6.69208623568217</v>
       </c>
       <c r="L123">
-        <v>46.64724372963993</v>
+        <v>40.92600175551247</v>
       </c>
       <c r="M123">
-        <v>47.07083952337497</v>
-      </c>
-    </row>
-    <row r="124" spans="1:13">
+        <v>37.21879354064344</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14">
       <c r="A124" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B124">
-        <v>7.501364707946777</v>
+        <v>6.35441780090332</v>
       </c>
       <c r="C124">
-        <v>7.503182888031006</v>
+        <v>6.394238471984863</v>
       </c>
       <c r="D124">
-        <v>7.369210243225098</v>
+        <v>6.264542102813721</v>
       </c>
       <c r="E124">
-        <v>7.370827674865723</v>
+        <v>6.270794868469238</v>
       </c>
       <c r="F124">
-        <v>4911568</v>
+        <v>1808784</v>
       </c>
       <c r="G124">
-        <v>7.535690959472034</v>
+        <v>6.52065233986565</v>
       </c>
       <c r="H124">
-        <v>7.52072160243988</v>
+        <v>6.564226937294007</v>
       </c>
       <c r="I124">
-        <v>7.586040655771892</v>
+        <v>6.670056406656901</v>
       </c>
       <c r="L124">
-        <v>37.74554151393716</v>
+        <v>36.68239570995146</v>
       </c>
       <c r="M124">
-        <v>41.93663269272567</v>
-      </c>
-    </row>
-    <row r="125" spans="1:13">
+        <v>34.53986536836036</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14">
       <c r="A125" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B125">
-        <v>7.371164321899414</v>
+        <v>6.270539283752441</v>
       </c>
       <c r="C125">
-        <v>7.42103910446167</v>
+        <v>6.411902904510498</v>
       </c>
       <c r="D125">
-        <v>7.361203670501709</v>
+        <v>6.268814086914063</v>
       </c>
       <c r="E125">
-        <v>7.392941951751709</v>
+        <v>6.374345302581787</v>
       </c>
       <c r="F125">
-        <v>2071248</v>
+        <v>5557984</v>
       </c>
       <c r="G125">
-        <v>7.522713776952004</v>
+        <v>6.507351700112572</v>
       </c>
       <c r="H125">
-        <v>7.51497163772583</v>
+        <v>6.538030195236206</v>
       </c>
       <c r="I125">
-        <v>7.56330361366272</v>
+        <v>6.649348481496175</v>
       </c>
       <c r="L125">
-        <v>39.91344388620104</v>
+        <v>44.71241153586365</v>
       </c>
       <c r="M125">
-        <v>43.06067136228423</v>
-      </c>
-    </row>
-    <row r="126" spans="1:13">
+        <v>40.30152004488149</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14">
       <c r="A126" s="1" t="s">
         <v>138</v>
       </c>
       <c r="B126">
-        <v>7.393252849578857</v>
+        <v>6.374606132507324</v>
       </c>
       <c r="C126">
-        <v>7.452565193176269</v>
+        <v>6.52580738067627</v>
       </c>
       <c r="D126">
-        <v>7.332631587982178</v>
+        <v>6.373342037200928</v>
       </c>
       <c r="E126">
-        <v>7.335696220397949</v>
+        <v>6.474977493286133</v>
       </c>
       <c r="F126">
-        <v>1051904</v>
+        <v>0</v>
       </c>
       <c r="G126">
-        <v>7.505712180901635</v>
+        <v>6.504408590401078</v>
       </c>
       <c r="H126">
-        <v>7.500876998901367</v>
+        <v>6.51596155166626</v>
       </c>
       <c r="I126">
-        <v>7.544935750961304</v>
+        <v>6.631885496775309</v>
       </c>
       <c r="L126">
-        <v>36.23841050092082</v>
+        <v>51.4447459881056</v>
       </c>
       <c r="M126">
-        <v>40.85577810975728</v>
-      </c>
-    </row>
-    <row r="127" spans="1:13">
+        <v>45.33692153437675</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14">
       <c r="A127" s="1" t="s">
         <v>139</v>
       </c>
       <c r="B127">
-        <v>7.338150978088379</v>
+        <v>6.475088596343994</v>
       </c>
       <c r="C127">
-        <v>7.363827228546143</v>
+        <v>6.532093048095703</v>
       </c>
       <c r="D127">
-        <v>7.274361133575439</v>
+        <v>6.380398273468018</v>
       </c>
       <c r="E127">
-        <v>7.351038455963135</v>
+        <v>6.416301250457764</v>
       </c>
       <c r="F127">
-        <v>1068192</v>
+        <v>0</v>
       </c>
       <c r="G127">
-        <v>7.491650933179953</v>
+        <v>6.496398832224413</v>
       </c>
       <c r="H127">
-        <v>7.489342999458313</v>
+        <v>6.491840529441833</v>
       </c>
       <c r="I127">
-        <v>7.531948105494181</v>
+        <v>6.619068559010824</v>
       </c>
       <c r="L127">
-        <v>37.96070340683167</v>
+        <v>47.63949686700226</v>
       </c>
       <c r="M127">
-        <v>41.71712474628002</v>
-      </c>
-    </row>
-    <row r="128" spans="1:13">
+        <v>43.05647768654788</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14">
       <c r="A128" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B128">
-        <v>7.350860118865967</v>
+        <v>6.417064666748047</v>
       </c>
       <c r="C128">
-        <v>7.368649959564209</v>
+        <v>6.441590309143066</v>
       </c>
       <c r="D128">
-        <v>7.266695976257324</v>
+        <v>6.310900688171387</v>
       </c>
       <c r="E128">
-        <v>7.33064603805542</v>
+        <v>6.336695194244385</v>
       </c>
       <c r="F128">
-        <v>0</v>
+        <v>86528</v>
       </c>
       <c r="G128">
-        <v>7.477014124532268</v>
+        <v>6.481880319680775</v>
       </c>
       <c r="H128">
-        <v>7.472588992118835</v>
+        <v>6.463832545280456</v>
       </c>
       <c r="I128">
-        <v>7.524016125996908</v>
+        <v>6.602136373519897</v>
       </c>
       <c r="L128">
-        <v>36.48697212797288</v>
+        <v>42.80678389978183</v>
       </c>
       <c r="M128">
-        <v>40.86523306146611</v>
-      </c>
-    </row>
-    <row r="129" spans="1:14">
+        <v>40.10882829069034</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B129">
-        <v>7.335141181945801</v>
+        <v>6.336599826812744</v>
       </c>
       <c r="C129">
-        <v>7.377193450927734</v>
+        <v>6.469721794128418</v>
       </c>
       <c r="D129">
-        <v>7.237730979919434</v>
+        <v>6.299429893493652</v>
       </c>
       <c r="E129">
-        <v>7.341565132141113</v>
+        <v>6.459625720977783</v>
       </c>
       <c r="F129">
-        <v>839728</v>
+        <v>601024</v>
       </c>
       <c r="G129">
-        <v>7.464700579769435</v>
+        <v>6.479857174344139</v>
       </c>
       <c r="H129">
-        <v>7.465556120872497</v>
+        <v>6.442565870285034</v>
       </c>
       <c r="I129">
-        <v>7.515370543797811</v>
+        <v>6.588345066706339</v>
       </c>
       <c r="L129">
-        <v>37.93834111175716</v>
+        <v>51.37599293840261</v>
       </c>
       <c r="M129">
-        <v>41.55345955911248</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14">
+        <v>46.23052032671301</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B130">
-        <v>7.341565132141113</v>
+        <v>6.45992374420166</v>
       </c>
       <c r="C130">
-        <v>7.368809223175049</v>
+        <v>6.480818271636963</v>
       </c>
       <c r="D130">
-        <v>7.289361953735352</v>
+        <v>6.423626899719238</v>
       </c>
       <c r="E130">
-        <v>7.335762500762939</v>
+        <v>6.473203659057617</v>
       </c>
       <c r="F130">
         <v>0</v>
       </c>
       <c r="G130">
-        <v>7.452978936223389</v>
+        <v>6.479252309318092</v>
       </c>
       <c r="H130">
-        <v>7.465983176231385</v>
+        <v>6.421279120445251</v>
       </c>
       <c r="I130">
-        <v>7.503296693166097</v>
+        <v>6.576599327723185</v>
       </c>
       <c r="L130">
-        <v>37.42702297160378</v>
+        <v>52.26470772966879</v>
       </c>
       <c r="M130">
-        <v>41.27852097905082</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14">
+        <v>46.87640486908165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B131">
-        <v>7.3359375</v>
+        <v>6.473193645477295</v>
       </c>
       <c r="C131">
-        <v>7.339245796203613</v>
+        <v>6.524149417877197</v>
       </c>
       <c r="D131">
-        <v>7.1780686378479</v>
+        <v>6.408339023590088</v>
       </c>
       <c r="E131">
-        <v>7.193965911865234</v>
+        <v>6.504037857055664</v>
       </c>
       <c r="F131">
-        <v>4182496</v>
+        <v>160432</v>
       </c>
       <c r="G131">
-        <v>7.429432297645375</v>
+        <v>6.481505540930598</v>
       </c>
       <c r="H131">
-        <v>7.445706081390381</v>
+        <v>6.406068992614746</v>
       </c>
       <c r="I131">
-        <v>7.48835817972819</v>
+        <v>6.563003555933634</v>
       </c>
       <c r="L131">
-        <v>27.30872250685683</v>
+        <v>54.39423292555072</v>
       </c>
       <c r="M131">
-        <v>35.15692257022615</v>
-      </c>
-      <c r="N131" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14">
+        <v>48.39246249853095</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B132">
-        <v>7.195205211639404</v>
+        <v>6.504629611968994</v>
       </c>
       <c r="C132">
-        <v>7.232493877410889</v>
+        <v>6.559727668762207</v>
       </c>
       <c r="D132">
-        <v>7.120471954345703</v>
+        <v>6.449331283569336</v>
       </c>
       <c r="E132">
-        <v>7.216941356658935</v>
+        <v>6.527341842651367</v>
       </c>
       <c r="F132">
-        <v>7330240</v>
+        <v>1922512</v>
       </c>
       <c r="G132">
-        <v>7.41011493937388</v>
+        <v>6.485672477450668</v>
       </c>
       <c r="H132">
-        <v>7.429461765289306</v>
+        <v>6.396144676208496</v>
       </c>
       <c r="I132">
-        <v>7.472085984547933</v>
+        <v>6.552181180318197</v>
       </c>
       <c r="L132">
-        <v>30.72272438133412</v>
+        <v>56.06088360905483</v>
       </c>
       <c r="M132">
-        <v>36.79257723994271</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14">
+        <v>49.5639866148672</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B133">
-        <v>7.216864585876465</v>
+        <v>6.527685642242432</v>
       </c>
       <c r="C133">
-        <v>7.216864585876465</v>
+        <v>6.531595230102539</v>
       </c>
       <c r="D133">
-        <v>6.865119457244873</v>
+        <v>6.363040447235107</v>
       </c>
       <c r="E133">
-        <v>6.865119457244873</v>
+        <v>6.38723611831665</v>
       </c>
       <c r="F133">
-        <v>41683504</v>
+        <v>264480</v>
       </c>
       <c r="G133">
-        <v>7.36056989554397</v>
+        <v>6.476723717529394</v>
       </c>
       <c r="H133">
-        <v>7.393628430366516</v>
+        <v>6.379774308204651</v>
       </c>
       <c r="I133">
-        <v>7.446375147501628</v>
+        <v>6.536258586247762</v>
       </c>
       <c r="L133">
-        <v>16.98248748219722</v>
+        <v>44.95032581231343</v>
       </c>
       <c r="M133">
-        <v>25.98384003116119</v>
-      </c>
-      <c r="N133" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14">
+        <v>43.21272362341138</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B134">
-        <v>6.867046356201172</v>
+        <v>6.386641502380371</v>
       </c>
       <c r="C134">
-        <v>7.047632694244385</v>
+        <v>6.498313903808594</v>
       </c>
       <c r="D134">
-        <v>6.863233089447021</v>
+        <v>6.353330135345459</v>
       </c>
       <c r="E134">
-        <v>7.007729053497314</v>
+        <v>6.448036193847656</v>
       </c>
       <c r="F134">
-        <v>23057984</v>
+        <v>1448128</v>
       </c>
       <c r="G134">
-        <v>7.32849345535791</v>
+        <v>6.474115760831054</v>
       </c>
       <c r="H134">
-        <v>7.372985172271728</v>
+        <v>6.372677063941955</v>
       </c>
       <c r="I134">
-        <v>7.426194604237875</v>
+        <v>6.522877979278564</v>
       </c>
       <c r="L134">
-        <v>31.04542334692028</v>
+        <v>49.80680494903548</v>
       </c>
       <c r="M134">
-        <v>34.39682599572789</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14">
+        <v>46.4213458526929</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B135">
-        <v>7.007309913635254</v>
+        <v>6.448469161987305</v>
       </c>
       <c r="C135">
-        <v>7.037002563476562</v>
+        <v>6.478504180908203</v>
       </c>
       <c r="D135">
-        <v>6.846107959747314</v>
+        <v>6.41700553894043</v>
       </c>
       <c r="E135">
-        <v>6.931689739227295</v>
+        <v>6.434487342834473</v>
       </c>
       <c r="F135">
-        <v>5801024</v>
+        <v>1209088</v>
       </c>
       <c r="G135">
-        <v>7.292420390255128</v>
+        <v>6.470513177376819</v>
       </c>
       <c r="H135">
-        <v>7.338469171524048</v>
+        <v>6.368542456626892</v>
       </c>
       <c r="I135">
-        <v>7.406986220677694</v>
+        <v>6.507418219248454</v>
       </c>
       <c r="L135">
-        <v>28.18179355015538</v>
+        <v>48.72908504868182</v>
       </c>
       <c r="M135">
-        <v>32.28937548569606</v>
-      </c>
-      <c r="N135" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14">
+        <v>45.8003067201343</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B136">
-        <v>6.931689739227295</v>
+        <v>6.433969497680664</v>
       </c>
       <c r="C136">
-        <v>7.041850090026856</v>
+        <v>6.478225231170654</v>
       </c>
       <c r="D136">
-        <v>6.931689739227295</v>
+        <v>6.367602825164795</v>
       </c>
       <c r="E136">
-        <v>6.995583057403564</v>
+        <v>6.443945407867432</v>
       </c>
       <c r="F136">
-        <v>3430192</v>
+        <v>2409216</v>
       </c>
       <c r="G136">
-        <v>7.265435178177713</v>
+        <v>6.468097925603239</v>
       </c>
       <c r="H136">
-        <v>7.312360763549805</v>
+        <v>6.37259361743927</v>
       </c>
       <c r="I136">
-        <v>7.386252689361572</v>
+        <v>6.491671387354533</v>
       </c>
       <c r="L136">
-        <v>33.9417124814914</v>
+        <v>49.58577304641905</v>
       </c>
       <c r="M136">
-        <v>35.84620696217791</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14">
+        <v>46.3399869700835</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B137">
-        <v>6.995460987091064</v>
+        <v>6.444109439849854</v>
       </c>
       <c r="C137">
-        <v>7.02116584777832</v>
+        <v>6.453217029571533</v>
       </c>
       <c r="D137">
-        <v>6.961908340454102</v>
+        <v>6.365406036376953</v>
       </c>
       <c r="E137">
-        <v>6.998867034912109</v>
+        <v>6.372050285339356</v>
       </c>
       <c r="F137">
-        <v>717680</v>
+        <v>14464</v>
       </c>
       <c r="G137">
-        <v>7.241201710608112</v>
+        <v>6.459366321942885</v>
       </c>
       <c r="H137">
-        <v>7.284009337425232</v>
+        <v>6.374764513969422</v>
       </c>
       <c r="I137">
-        <v>7.366824309031169</v>
+        <v>6.474115673700968</v>
       </c>
       <c r="L137">
-        <v>34.24664027960488</v>
+        <v>43.38631113732444</v>
       </c>
       <c r="M137">
-        <v>36.03220026069235</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14">
+        <v>42.84740924808573</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B138">
-        <v>6.9988694190979</v>
+        <v>6.371800422668457</v>
       </c>
       <c r="C138">
-        <v>6.9988694190979</v>
+        <v>6.602009773254395</v>
       </c>
       <c r="D138">
-        <v>6.790624141693115</v>
+        <v>6.369965076446533</v>
       </c>
       <c r="E138">
-        <v>6.800809383392334</v>
+        <v>6.60065507888794</v>
       </c>
       <c r="F138">
-        <v>9134592</v>
+        <v>13646960</v>
       </c>
       <c r="G138">
-        <v>7.201166044497587</v>
+        <v>6.472210754392435</v>
       </c>
       <c r="H138">
-        <v>7.247262740135193</v>
+        <v>6.383674240112304</v>
       </c>
       <c r="I138">
-        <v>7.337993748982748</v>
+        <v>6.464242347081503</v>
       </c>
       <c r="L138">
-        <v>26.07888525110387</v>
+        <v>60.8814691843338</v>
       </c>
       <c r="M138">
-        <v>30.32246916526583</v>
-      </c>
-      <c r="N138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14">
+        <v>54.57171427286676</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B139">
-        <v>6.799653053283691</v>
+        <v>6.600201606750488</v>
       </c>
       <c r="C139">
-        <v>6.865964889526367</v>
+        <v>6.623045444488525</v>
       </c>
       <c r="D139">
-        <v>6.595669269561768</v>
+        <v>6.517629146575928</v>
       </c>
       <c r="E139">
-        <v>6.844660758972168</v>
+        <v>6.622593879699707</v>
       </c>
       <c r="F139">
-        <v>10584432</v>
+        <v>6470640</v>
       </c>
       <c r="G139">
-        <v>7.168756473086185</v>
+        <v>6.485881947602187</v>
       </c>
       <c r="H139">
-        <v>7.213718867301941</v>
+        <v>6.399992442131042</v>
       </c>
       <c r="I139">
-        <v>7.316741689046224</v>
+        <v>6.455496835708618</v>
       </c>
       <c r="L139">
-        <v>30.22398524388369</v>
+        <v>62.14447616626422</v>
       </c>
       <c r="M139">
-        <v>32.85927472408468</v>
-      </c>
-    </row>
-    <row r="140" spans="1:14">
+        <v>55.51485911241984</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B140">
-        <v>6.844893455505371</v>
+        <v>6.622463226318359</v>
       </c>
       <c r="C140">
-        <v>6.905531883239746</v>
+        <v>6.720437526702881</v>
       </c>
       <c r="D140">
-        <v>6.816912651062012</v>
+        <v>6.621045112609863</v>
       </c>
       <c r="E140">
-        <v>6.873364925384521</v>
+        <v>6.67252254486084</v>
       </c>
       <c r="F140">
-        <v>2957168</v>
+        <v>15096112</v>
       </c>
       <c r="G140">
-        <v>7.141902696022397</v>
+        <v>6.502849274625701</v>
       </c>
       <c r="H140">
-        <v>7.181565070152283</v>
+        <v>6.429550313949585</v>
       </c>
       <c r="I140">
-        <v>7.301613140106201</v>
+        <v>6.447949632008871</v>
       </c>
       <c r="L140">
-        <v>32.99101472128323</v>
+        <v>65.03481426863284</v>
       </c>
       <c r="M140">
-        <v>34.53932134400878</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14">
+        <v>57.66880281937499</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B141">
-        <v>6.874999523162842</v>
+        <v>6.67320728302002</v>
       </c>
       <c r="C141">
-        <v>6.881649494171143</v>
+        <v>6.723201274871826</v>
       </c>
       <c r="D141">
-        <v>6.783598899841309</v>
+        <v>6.643692970275879</v>
       </c>
       <c r="E141">
-        <v>6.825575828552246</v>
+        <v>6.671587467193604</v>
       </c>
       <c r="F141">
-        <v>2135792</v>
+        <v>5179520</v>
       </c>
       <c r="G141">
-        <v>7.113145708070565</v>
+        <v>6.518189110313692</v>
       </c>
       <c r="H141">
-        <v>7.150186944007873</v>
+        <v>6.452721738815308</v>
       </c>
       <c r="I141">
-        <v>7.2758154074351</v>
+        <v>6.443394533793131</v>
       </c>
       <c r="L141">
-        <v>30.71002073468638</v>
+        <v>64.93036209921175</v>
       </c>
       <c r="M141">
-        <v>33.05626499225732</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14">
+        <v>57.61254034650641</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B142">
-        <v>6.825985908508301</v>
+        <v>6.672746181488037</v>
       </c>
       <c r="C142">
-        <v>6.942978382110596</v>
+        <v>6.709054946899414</v>
       </c>
       <c r="D142">
-        <v>6.825985908508301</v>
+        <v>6.672468662261963</v>
       </c>
       <c r="E142">
-        <v>6.911911010742188</v>
+        <v>6.689364433288574</v>
       </c>
       <c r="F142">
-        <v>1110448</v>
+        <v>2458016</v>
       </c>
       <c r="G142">
-        <v>7.094851644677076</v>
+        <v>6.533750503311408</v>
       </c>
       <c r="H142">
-        <v>7.12135546207428</v>
+        <v>6.476688194274902</v>
       </c>
       <c r="I142">
-        <v>7.254818185170492</v>
+        <v>6.442179075876871</v>
       </c>
       <c r="L142">
-        <v>39.2470599438325</v>
+        <v>66.09501781536883</v>
       </c>
       <c r="M142">
-        <v>38.21749305865598</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14">
+        <v>58.44262171324412</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B143">
-        <v>6.910614967346191</v>
+        <v>6.689136028289795</v>
       </c>
       <c r="C143">
-        <v>6.918447017669678</v>
+        <v>6.69251537322998</v>
       </c>
       <c r="D143">
-        <v>6.805921077728272</v>
+        <v>6.55417013168335</v>
       </c>
       <c r="E143">
-        <v>6.852013111114502</v>
+        <v>6.563246726989746</v>
       </c>
       <c r="F143">
-        <v>0</v>
+        <v>4832016</v>
       </c>
       <c r="G143">
-        <v>7.072775414353205</v>
+        <v>6.536431978191256</v>
       </c>
       <c r="H143">
-        <v>7.088835430145264</v>
+        <v>6.487152433395385</v>
       </c>
       <c r="I143">
-        <v>7.230492417017619</v>
+        <v>6.437132517496745</v>
       </c>
       <c r="L143">
-        <v>35.80399916350756</v>
+        <v>52.24672355137058</v>
       </c>
       <c r="M143">
-        <v>36.13592436888243</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14">
+        <v>50.83651903612052</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B144">
-        <v>6.85215425491333</v>
+        <v>6.563620567321777</v>
       </c>
       <c r="C144">
-        <v>6.875782489776611</v>
+        <v>6.653964042663574</v>
       </c>
       <c r="D144">
-        <v>6.815442085266113</v>
+        <v>6.540070056915283</v>
       </c>
       <c r="E144">
-        <v>6.864913940429688</v>
+        <v>6.64939546585083</v>
       </c>
       <c r="F144">
         <v>0</v>
       </c>
       <c r="G144">
-        <v>7.053878916723795</v>
+        <v>6.546701386160309</v>
       </c>
       <c r="H144">
-        <v>7.063539743423462</v>
+        <v>6.506082463264465</v>
       </c>
       <c r="I144">
-        <v>7.211969741185507</v>
+        <v>6.439112997055053</v>
       </c>
       <c r="L144">
-        <v>37.14019208980068</v>
+        <v>58.86919575116401</v>
       </c>
       <c r="M144">
-        <v>36.93267729176394</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14">
+        <v>55.13213495030512</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B145">
-        <v>6.864136219024658</v>
+        <v>6.649318695068359</v>
       </c>
       <c r="C145">
-        <v>6.88116455078125</v>
+        <v>6.70695161819458</v>
       </c>
       <c r="D145">
-        <v>6.813065052032471</v>
+        <v>6.631485462188721</v>
       </c>
       <c r="E145">
-        <v>6.849454402923584</v>
+        <v>6.692936420440674</v>
       </c>
       <c r="F145">
         <v>0</v>
       </c>
       <c r="G145">
-        <v>7.035294870014684</v>
+        <v>6.559995480185796</v>
       </c>
       <c r="H145">
-        <v>7.036365365982055</v>
+        <v>6.52201201915741</v>
       </c>
       <c r="I145">
-        <v>7.186217896143595</v>
+        <v>6.444971561431885</v>
       </c>
       <c r="L145">
-        <v>36.12647181150061</v>
+        <v>61.87543416713822</v>
       </c>
       <c r="M145">
-        <v>36.34747657233099</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14">
+        <v>57.16905588042644</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B146">
-        <v>6.849424839019775</v>
+        <v>6.692484855651856</v>
       </c>
       <c r="C146">
-        <v>6.91602087020874</v>
+        <v>6.708250045776367</v>
       </c>
       <c r="D146">
-        <v>6.84667444229126</v>
+        <v>6.645652770996094</v>
       </c>
       <c r="E146">
-        <v>6.898280143737793</v>
+        <v>6.685793399810791</v>
       </c>
       <c r="F146">
-        <v>856512</v>
+        <v>0</v>
       </c>
       <c r="G146">
-        <v>7.022838985807693</v>
+        <v>6.571431654697158</v>
       </c>
       <c r="H146">
-        <v>7.014494562149048</v>
+        <v>6.532552814483642</v>
       </c>
       <c r="I146">
-        <v>7.165568860371907</v>
+        <v>6.455733935038249</v>
       </c>
       <c r="L146">
-        <v>41.77325802091241</v>
+        <v>61.0518808004566</v>
       </c>
       <c r="M146">
-        <v>39.60247106530733</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14">
+        <v>56.71417360419724</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B147">
-        <v>6.900288581848145</v>
+        <v>6.685136318206787</v>
       </c>
       <c r="C147">
-        <v>6.964543342590332</v>
+        <v>6.740087509155273</v>
       </c>
       <c r="D147">
-        <v>6.867940425872803</v>
+        <v>6.66307258605957</v>
       </c>
       <c r="E147">
-        <v>6.916350364685059</v>
+        <v>6.670417785644531</v>
       </c>
       <c r="F147">
-        <v>1023552</v>
+        <v>5977744</v>
       </c>
       <c r="G147">
-        <v>7.013158202069272</v>
+        <v>6.580430393874192</v>
       </c>
       <c r="H147">
-        <v>6.992760157585144</v>
+        <v>6.545258641242981</v>
       </c>
       <c r="I147">
-        <v>7.143917353947957</v>
+        <v>6.467126782735189</v>
       </c>
       <c r="L147">
-        <v>43.84040588753553</v>
+        <v>59.1455483506047</v>
       </c>
       <c r="M147">
-        <v>40.80886897500731</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14">
+        <v>55.68703897213009</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B148">
-        <v>6.916549205780029</v>
+        <v>6.670120716094971</v>
       </c>
       <c r="C148">
-        <v>6.917152404785156</v>
+        <v>6.732035636901856</v>
       </c>
       <c r="D148">
-        <v>6.859640598297119</v>
+        <v>6.663556575775146</v>
       </c>
       <c r="E148">
-        <v>6.898721694946289</v>
+        <v>6.729626178741455</v>
       </c>
       <c r="F148">
-        <v>137624</v>
+        <v>4047648</v>
       </c>
       <c r="G148">
-        <v>7.00275488323991</v>
+        <v>6.593993647043943</v>
       </c>
       <c r="H148">
-        <v>6.971163940429688</v>
+        <v>6.564905190467835</v>
       </c>
       <c r="I148">
-        <v>7.12268336613973</v>
+        <v>6.477365636825562</v>
       </c>
       <c r="L148">
-        <v>42.19629183295556</v>
+        <v>64.01346318703594</v>
       </c>
       <c r="M148">
-        <v>39.97009045768931</v>
-      </c>
-    </row>
-    <row r="149" spans="1:14">
+        <v>58.78268269248181</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B149">
-        <v>6.898622512817383</v>
+        <v>6.730291366577148</v>
       </c>
       <c r="C149">
-        <v>6.91950273513794</v>
+        <v>6.788512706756592</v>
       </c>
       <c r="D149">
-        <v>6.890007495880127</v>
+        <v>6.701967239379883</v>
       </c>
       <c r="E149">
-        <v>6.896854877471924</v>
+        <v>6.701967239379883</v>
       </c>
       <c r="F149">
-        <v>260368</v>
+        <v>5550000</v>
       </c>
       <c r="G149">
-        <v>6.993127609988274</v>
+        <v>6.603809428165392</v>
       </c>
       <c r="H149">
-        <v>6.948928427696228</v>
+        <v>6.57702226638794</v>
       </c>
       <c r="I149">
-        <v>7.102060588200887</v>
+        <v>6.490890216827393</v>
       </c>
       <c r="L149">
-        <v>42.0086064336774</v>
+        <v>60.2412001228444</v>
       </c>
       <c r="M149">
-        <v>39.87661920335275</v>
-      </c>
-    </row>
-    <row r="150" spans="1:14">
+        <v>56.78693533403622</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B150">
-        <v>6.897097110748291</v>
+        <v>6.701412677764893</v>
       </c>
       <c r="C150">
-        <v>6.960866928100586</v>
+        <v>6.771066188812256</v>
       </c>
       <c r="D150">
-        <v>6.868822574615479</v>
+        <v>6.690422058105469</v>
       </c>
       <c r="E150">
-        <v>6.884959220886231</v>
+        <v>6.724459648132324</v>
       </c>
       <c r="F150">
-        <v>2912432</v>
+        <v>4407184</v>
       </c>
       <c r="G150">
-        <v>6.983294120069907</v>
+        <v>6.614777629980567</v>
       </c>
       <c r="H150">
-        <v>6.926388263702393</v>
+        <v>6.589585065841675</v>
       </c>
       <c r="I150">
-        <v>7.081011199951172</v>
+        <v>6.512326701482137</v>
       </c>
       <c r="L150">
-        <v>40.71052485757231</v>
+        <v>62.27502064859907</v>
       </c>
       <c r="M150">
-        <v>39.24679637810387</v>
-      </c>
-    </row>
-    <row r="151" spans="1:14">
+        <v>58.0346970376461</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B151">
-        <v>6.884636878967285</v>
+        <v>6.728262901306152</v>
       </c>
       <c r="C151">
-        <v>6.906099796295166</v>
+        <v>6.73226261138916</v>
       </c>
       <c r="D151">
-        <v>6.860935688018799</v>
+        <v>6.636091709136963</v>
       </c>
       <c r="E151">
-        <v>6.898938655853272</v>
+        <v>6.653702259063721</v>
       </c>
       <c r="F151">
-        <v>0</v>
+        <v>6189040</v>
       </c>
       <c r="G151">
-        <v>6.975625441504758</v>
+        <v>6.61831623262449</v>
       </c>
       <c r="H151">
-        <v>6.911636900901795</v>
+        <v>6.597068285942077</v>
       </c>
       <c r="I151">
-        <v>7.062537876764933</v>
+        <v>6.527178144454956</v>
       </c>
       <c r="J151">
-        <v>7.670242328643798</v>
+        <v>7.151333436965943</v>
       </c>
       <c r="L151">
-        <v>43.03757583376491</v>
+        <v>52.72909530288069</v>
       </c>
       <c r="M151">
-        <v>40.43737956190382</v>
-      </c>
-    </row>
-    <row r="152" spans="1:14">
+        <v>52.86347909433537</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B152">
-        <v>6.899491310119629</v>
+        <v>6.653353214263916</v>
       </c>
       <c r="C152">
-        <v>6.904166221618652</v>
+        <v>6.680132865905762</v>
       </c>
       <c r="D152">
-        <v>6.808240413665772</v>
+        <v>6.582810878753662</v>
       </c>
       <c r="E152">
-        <v>6.808240413665772</v>
+        <v>6.608368873596191</v>
       </c>
       <c r="F152">
-        <v>1286192</v>
+        <v>4418624</v>
       </c>
       <c r="G152">
-        <v>6.960408620792123</v>
+        <v>6.617411927258281</v>
       </c>
       <c r="H152">
-        <v>6.891201853752136</v>
+        <v>6.601119637489319</v>
       </c>
       <c r="I152">
-        <v>7.03986120223999</v>
+        <v>6.540455929438273</v>
       </c>
       <c r="J152">
-        <v>7.658825084736805</v>
+        <v>7.144141853345152</v>
       </c>
       <c r="L152">
-        <v>33.45381929786415</v>
+        <v>47.4829455676271</v>
       </c>
       <c r="M152">
-        <v>35.56730653548961</v>
-      </c>
-    </row>
-    <row r="153" spans="1:14">
+        <v>49.80165701593436</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B153">
-        <v>6.808433532714844</v>
+        <v>6.608352184295654</v>
       </c>
       <c r="C153">
-        <v>6.835376739501953</v>
+        <v>6.83648157119751</v>
       </c>
       <c r="D153">
-        <v>6.691895008087158</v>
+        <v>6.579175472259521</v>
       </c>
       <c r="E153">
-        <v>6.725828170776367</v>
+        <v>6.83557653427124</v>
       </c>
       <c r="F153">
-        <v>10106280</v>
+        <v>19040080</v>
       </c>
       <c r="G153">
-        <v>6.939083125336144</v>
+        <v>6.637245073350368</v>
       </c>
       <c r="H153">
-        <v>6.884237289428711</v>
+        <v>6.623536658287049</v>
       </c>
       <c r="I153">
-        <v>7.013975016276041</v>
+        <v>6.556509749094645</v>
       </c>
       <c r="J153">
-        <v>7.646467509717462</v>
+        <v>7.140054895476624</v>
       </c>
       <c r="L153">
-        <v>27.25068968296551</v>
+        <v>66.35636563314416</v>
       </c>
       <c r="M153">
-        <v>31.81759881015774</v>
-      </c>
-      <c r="N153" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="154" spans="1:14">
+        <v>61.75707597081994</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B154">
-        <v>6.723674774169922</v>
+        <v>6.846796989440918</v>
       </c>
       <c r="C154">
-        <v>6.749286651611328</v>
+        <v>6.949397087097168</v>
       </c>
       <c r="D154">
-        <v>6.660932064056396</v>
+        <v>6.764410972595215</v>
       </c>
       <c r="E154">
-        <v>6.714643478393555</v>
+        <v>6.923659801483154</v>
       </c>
       <c r="F154">
-        <v>5041264</v>
+        <v>23243152</v>
       </c>
       <c r="G154">
-        <v>6.918679521068636</v>
+        <v>6.663282775907893</v>
       </c>
       <c r="H154">
-        <v>6.869583010673523</v>
+        <v>6.647317838668823</v>
       </c>
       <c r="I154">
-        <v>6.992102209726969</v>
+        <v>6.578271913528442</v>
       </c>
       <c r="J154">
-        <v>7.634125469567477</v>
+        <v>7.13718873529128</v>
       </c>
       <c r="L154">
-        <v>26.50044462654759</v>
+        <v>70.9150682576436</v>
       </c>
       <c r="M154">
-        <v>31.33477353849123</v>
-      </c>
-      <c r="N154" t="s">
+        <v>65.21577576902666</v>
+      </c>
+      <c r="O154" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="155" spans="1:14">
+    <row r="155" spans="1:15">
       <c r="A155" s="1" t="s">
         <v>167</v>
       </c>
       <c r="B155">
-        <v>6.714789390563965</v>
+        <v>6.923608303070068</v>
       </c>
       <c r="C155">
-        <v>6.791878700256348</v>
+        <v>6.990421295166016</v>
       </c>
       <c r="D155">
-        <v>6.559804916381836</v>
+        <v>6.811513423919678</v>
       </c>
       <c r="E155">
-        <v>6.589981079101562</v>
+        <v>6.814017772674561</v>
       </c>
       <c r="F155">
-        <v>38236464</v>
+        <v>8383136</v>
       </c>
       <c r="G155">
-        <v>6.888797844526175</v>
+        <v>6.676985957432136</v>
       </c>
       <c r="H155">
-        <v>6.852497577667236</v>
+        <v>6.666294360160828</v>
       </c>
       <c r="I155">
-        <v>6.965336847305298</v>
+        <v>6.592927662531535</v>
       </c>
       <c r="J155">
-        <v>7.620295742541439</v>
+        <v>7.132908325190397</v>
       </c>
       <c r="L155">
-        <v>19.69978440324989</v>
+        <v>59.60517521605308</v>
       </c>
       <c r="M155">
-        <v>26.50669530732376</v>
-      </c>
-      <c r="N155" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="156" spans="1:14">
+        <v>58.16420446895592</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B156">
-        <v>6.588070869445801</v>
+        <v>6.814414501190186</v>
       </c>
       <c r="C156">
-        <v>6.654989719390869</v>
+        <v>6.85442066192627</v>
       </c>
       <c r="D156">
-        <v>6.47889518737793</v>
+        <v>6.772892475128174</v>
       </c>
       <c r="E156">
-        <v>6.517179489135742</v>
+        <v>6.828166007995605</v>
       </c>
       <c r="F156">
-        <v>24539696</v>
+        <v>8601632</v>
       </c>
       <c r="G156">
-        <v>6.855014357672499</v>
+        <v>6.690729598392451</v>
       </c>
       <c r="H156">
-        <v>6.828577399253845</v>
+        <v>6.685505390167236</v>
       </c>
       <c r="I156">
-        <v>6.938052956263224</v>
+        <v>6.60470061302185</v>
       </c>
       <c r="J156">
-        <v>7.605684931238052</v>
+        <v>7.128872003108347</v>
       </c>
       <c r="L156">
-        <v>16.85760383805408</v>
+        <v>60.5192528228325</v>
       </c>
       <c r="M156">
-        <v>24.16502841952402</v>
-      </c>
-      <c r="N156" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="157" spans="1:14">
+        <v>58.78352289338649</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B157">
-        <v>6.519047737121582</v>
+        <v>6.828153133392334</v>
       </c>
       <c r="C157">
-        <v>6.545785427093506</v>
+        <v>6.860020637512207</v>
       </c>
       <c r="D157">
-        <v>6.320576667785645</v>
+        <v>6.720755577087402</v>
       </c>
       <c r="E157">
-        <v>6.362922191619873</v>
+        <v>6.82072114944458</v>
       </c>
       <c r="F157">
-        <v>48375520</v>
+        <v>5218320</v>
       </c>
       <c r="G157">
-        <v>6.81027870621317</v>
+        <v>6.702547012124462</v>
       </c>
       <c r="H157">
-        <v>6.796780157089233</v>
+        <v>6.707938933372498</v>
       </c>
       <c r="I157">
-        <v>6.905115747451783</v>
+        <v>6.618181276321411</v>
       </c>
       <c r="J157">
-        <v>7.589224497600726</v>
+        <v>7.1247905348479</v>
       </c>
       <c r="L157">
-        <v>12.54367954346564</v>
+        <v>59.71927387538897</v>
       </c>
       <c r="M157">
-        <v>20.11095382471626</v>
-      </c>
-      <c r="N157" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="158" spans="1:14">
+        <v>58.29449640575005</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B158">
-        <v>6.364848136901856</v>
+        <v>6.821565628051758</v>
       </c>
       <c r="C158">
-        <v>6.480504989624023</v>
+        <v>7.16639518737793</v>
       </c>
       <c r="D158">
-        <v>6.327642440795898</v>
+        <v>6.787368297576904</v>
       </c>
       <c r="E158">
-        <v>6.328632354736328</v>
+        <v>7.10822582244873</v>
       </c>
       <c r="F158">
-        <v>28453536</v>
+        <v>75958464</v>
       </c>
       <c r="G158">
-        <v>6.76649267426073</v>
+        <v>6.739426903972123</v>
       </c>
       <c r="H158">
-        <v>6.773171305656433</v>
+        <v>6.733317470550537</v>
       </c>
       <c r="I158">
-        <v>6.871715291341146</v>
+        <v>6.643898963928223</v>
       </c>
       <c r="J158">
-        <v>7.572527912927026</v>
+        <v>7.124571134683673</v>
       </c>
       <c r="L158">
-        <v>11.78922324146512</v>
+        <v>74.41328817227317</v>
       </c>
       <c r="M158">
-        <v>19.3344551011423</v>
-      </c>
-      <c r="N158" t="s">
+        <v>69.01474741880662</v>
+      </c>
+      <c r="O158" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="159" spans="1:14">
+    <row r="159" spans="1:15">
       <c r="A159" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B159">
-        <v>6.332935333251953</v>
+        <v>7.108072280883789</v>
       </c>
       <c r="C159">
-        <v>6.441404819488525</v>
+        <v>7.290433883666992</v>
       </c>
       <c r="D159">
-        <v>6.332935333251953</v>
+        <v>7.031777381896973</v>
       </c>
       <c r="E159">
-        <v>6.422460556030273</v>
+        <v>7.031777381896973</v>
       </c>
       <c r="F159">
-        <v>2747344</v>
+        <v>37201056</v>
       </c>
       <c r="G159">
-        <v>6.73521702714887</v>
+        <v>6.766004220147109</v>
       </c>
       <c r="H159">
-        <v>6.752061295509338</v>
+        <v>6.7537766456604</v>
       </c>
       <c r="I159">
-        <v>6.841078472137451</v>
+        <v>6.662970685958863</v>
       </c>
       <c r="J159">
-        <v>7.557295232703228</v>
+        <v>7.123342078355372</v>
       </c>
       <c r="L159">
-        <v>25.57010591434734</v>
+        <v>67.09195973006156</v>
       </c>
       <c r="M159">
-        <v>27.57488596512166</v>
-      </c>
-      <c r="N159" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="160" spans="1:14">
+        <v>64.28305506858226</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B160">
-        <v>6.420079708099365</v>
+        <v>7.030881404876709</v>
       </c>
       <c r="C160">
-        <v>6.44318151473999</v>
+        <v>7.074925422668457</v>
       </c>
       <c r="D160">
-        <v>6.296229839324951</v>
+        <v>6.966849327087402</v>
       </c>
       <c r="E160">
-        <v>6.296229839324951</v>
+        <v>7.018772602081299</v>
       </c>
       <c r="F160">
-        <v>3847488</v>
+        <v>5558176</v>
       </c>
       <c r="G160">
-        <v>6.695309100983059</v>
+        <v>6.788983163959308</v>
       </c>
       <c r="H160">
-        <v>6.72320454120636</v>
+        <v>6.771089148521424</v>
       </c>
       <c r="I160">
-        <v>6.806427383422852</v>
+        <v>6.681156317392985</v>
       </c>
       <c r="J160">
-        <v>7.540592379810801</v>
+        <v>7.121957052179557</v>
       </c>
       <c r="L160">
-        <v>20.68025645847121</v>
+        <v>65.852034528804</v>
       </c>
       <c r="M160">
-        <v>24.01981804817343</v>
-      </c>
-      <c r="N160" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="161" spans="1:14">
+        <v>63.48566771347197</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
       <c r="A161" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B161">
-        <v>6.30171537399292</v>
+        <v>7.015614986419678</v>
       </c>
       <c r="C161">
-        <v>6.327953338623047</v>
+        <v>7.051092624664307</v>
       </c>
       <c r="D161">
-        <v>6.001399993896484</v>
+        <v>6.95176362991333</v>
       </c>
       <c r="E161">
-        <v>6.08136510848999</v>
+        <v>7.027766227722168</v>
       </c>
       <c r="F161">
-        <v>29152832</v>
+        <v>6225696</v>
       </c>
       <c r="G161">
-        <v>6.639496010756416</v>
+        <v>6.810690715210477</v>
       </c>
       <c r="H161">
-        <v>6.685994005203247</v>
+        <v>6.788898086547851</v>
       </c>
       <c r="I161">
-        <v>6.76934068997701</v>
+        <v>6.698613929748535</v>
       </c>
       <c r="J161">
-        <v>7.521264866283373</v>
+        <v>7.120709491590718</v>
       </c>
       <c r="L161">
-        <v>15.13708960280156</v>
+        <v>66.33606666056917</v>
       </c>
       <c r="M161">
-        <v>19.42832179634684</v>
-      </c>
-      <c r="N161" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="162" spans="1:14">
+        <v>63.81990814773258</v>
+      </c>
+    </row>
+    <row r="162" spans="1:13">
       <c r="A162" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B162">
-        <v>6.083712577819824</v>
+        <v>7.021189689636231</v>
       </c>
       <c r="C162">
-        <v>6.221940994262695</v>
+        <v>7.063828468322754</v>
       </c>
       <c r="D162">
-        <v>6.004881858825684</v>
+        <v>6.994428634643555</v>
       </c>
       <c r="E162">
-        <v>6.20815896987915</v>
+        <v>7.050899505615234</v>
       </c>
       <c r="F162">
-        <v>10595840</v>
+        <v>4568320</v>
       </c>
       <c r="G162">
-        <v>6.600283552494846</v>
+        <v>6.832527877974545</v>
       </c>
       <c r="H162">
-        <v>6.650806403160095</v>
+        <v>6.806974840164185</v>
       </c>
       <c r="I162">
-        <v>6.735714610417684</v>
+        <v>6.716065851847331</v>
       </c>
       <c r="J162">
-        <v>7.503872735205173</v>
+        <v>7.119784856014884</v>
       </c>
       <c r="L162">
-        <v>27.95686086371413</v>
+        <v>67.66245676341256</v>
       </c>
       <c r="M162">
-        <v>28.15589387711776</v>
-      </c>
-      <c r="N162" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="163" spans="1:14">
+        <v>64.71460851553213</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
       <c r="A163" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B163">
-        <v>6.215103626251221</v>
+        <v>7.050531387329102</v>
       </c>
       <c r="C163">
-        <v>6.328606605529785</v>
+        <v>7.060035705566406</v>
       </c>
       <c r="D163">
-        <v>6.199544906616211</v>
+        <v>6.9193434715271</v>
       </c>
       <c r="E163">
-        <v>6.21003532409668</v>
+        <v>6.996251583099365</v>
       </c>
       <c r="F163">
-        <v>0</v>
+        <v>8072384</v>
       </c>
       <c r="G163">
-        <v>6.564806440822285</v>
+        <v>6.847411851167711</v>
       </c>
       <c r="H163">
-        <v>6.618707513809204</v>
+        <v>6.828625082969666</v>
       </c>
       <c r="I163">
-        <v>6.713878472646077</v>
+        <v>6.736366367340088</v>
       </c>
       <c r="J163">
-        <v>7.486735815852743</v>
+        <v>7.118148653724613</v>
       </c>
       <c r="L163">
-        <v>28.13759210918811</v>
+        <v>61.2489699259925</v>
       </c>
       <c r="M163">
-        <v>28.27970349812159</v>
-      </c>
-      <c r="N163" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="164" spans="1:14">
+        <v>60.88429438250439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
       <c r="A164" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B164">
-        <v>6.206955909729004</v>
+        <v>6.998000621795654</v>
       </c>
       <c r="C164">
-        <v>6.358676433563232</v>
+        <v>7.029618740081787</v>
       </c>
       <c r="D164">
-        <v>6.162425994873047</v>
+        <v>6.956192970275879</v>
       </c>
       <c r="E164">
-        <v>6.353961944580078</v>
+        <v>7.003280162811279</v>
       </c>
       <c r="F164">
-        <v>1755328</v>
+        <v>0</v>
       </c>
       <c r="G164">
-        <v>6.545638759345721</v>
+        <v>6.861581697680762</v>
       </c>
       <c r="H164">
-        <v>6.593159914016724</v>
+        <v>6.846319317817688</v>
       </c>
       <c r="I164">
-        <v>6.69208623568217</v>
+        <v>6.754874499638875</v>
       </c>
       <c r="J164">
-        <v>7.471732188418668</v>
+        <v>7.116627216758874</v>
       </c>
       <c r="L164">
-        <v>40.92598389953898</v>
+        <v>61.77324632011346</v>
       </c>
       <c r="M164">
-        <v>37.21718248470933</v>
-      </c>
-    </row>
-    <row r="165" spans="1:14">
+        <v>61.20235945521514</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
       <c r="A165" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B165">
-        <v>6.35441780090332</v>
+        <v>7.004077434539795</v>
       </c>
       <c r="C165">
-        <v>6.394238471984863</v>
+        <v>7.037448883056641</v>
       </c>
       <c r="D165">
-        <v>6.264542102813721</v>
+        <v>6.832417964935303</v>
       </c>
       <c r="E165">
-        <v>6.270794868469238</v>
+        <v>6.842408657073975</v>
       </c>
       <c r="F165">
-        <v>1808784</v>
+        <v>0</v>
       </c>
       <c r="G165">
-        <v>6.520652951084222</v>
+        <v>6.859838693989236</v>
       </c>
       <c r="H165">
-        <v>6.564226937294007</v>
+        <v>6.853792929649353</v>
       </c>
       <c r="I165">
-        <v>6.670056406656901</v>
+        <v>6.768471876780192</v>
       </c>
       <c r="J165">
-        <v>7.455825733849802</v>
+        <v>7.112995182855763</v>
       </c>
       <c r="L165">
-        <v>36.68238296396416</v>
+        <v>45.8132652084719</v>
       </c>
       <c r="M165">
-        <v>34.53878515067145</v>
-      </c>
-    </row>
-    <row r="166" spans="1:14">
+        <v>50.98372996063718</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
       <c r="A166" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B166">
-        <v>6.270539283752441</v>
+        <v>6.840968132019043</v>
       </c>
       <c r="C166">
-        <v>6.411902904510498</v>
+        <v>6.850888252258301</v>
       </c>
       <c r="D166">
-        <v>6.268814086914063</v>
+        <v>6.776228904724121</v>
       </c>
       <c r="E166">
-        <v>6.374345302581787</v>
+        <v>6.802618980407715</v>
       </c>
       <c r="F166">
-        <v>5557984</v>
+        <v>0</v>
       </c>
       <c r="G166">
-        <v>6.507352255765819</v>
+        <v>6.854636901845461</v>
       </c>
       <c r="H166">
-        <v>6.538030195236206</v>
+        <v>6.859634208679199</v>
       </c>
       <c r="I166">
-        <v>6.649348481496175</v>
+        <v>6.780427662531535</v>
       </c>
       <c r="J166">
-        <v>7.441501489727048</v>
+        <v>7.108884239776982</v>
       </c>
       <c r="L166">
-        <v>44.71239502236044</v>
+        <v>42.74059257242035</v>
       </c>
       <c r="M166">
-        <v>40.29972109229848</v>
-      </c>
-    </row>
-    <row r="167" spans="1:14">
+        <v>48.8128556961439</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
       <c r="A167" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B167">
-        <v>6.374606132507324</v>
+        <v>6.802434921264648</v>
       </c>
       <c r="C167">
-        <v>6.52580738067627</v>
+        <v>6.881528854370117</v>
       </c>
       <c r="D167">
-        <v>6.373342037200928</v>
+        <v>6.795528888702393</v>
       </c>
       <c r="E167">
-        <v>6.474977493286133</v>
+        <v>6.873690605163574</v>
       </c>
       <c r="F167">
         <v>0</v>
       </c>
       <c r="G167">
-        <v>6.504409095540393</v>
+        <v>6.856369056692562</v>
       </c>
       <c r="H167">
-        <v>6.51596155166626</v>
+        <v>6.869797849655152</v>
       </c>
       <c r="I167">
-        <v>6.631885496775309</v>
+        <v>6.797149006525675</v>
       </c>
       <c r="J167">
-        <v>7.428699847390082</v>
+        <v>7.105769092298659</v>
       </c>
       <c r="L167">
-        <v>51.44472752118979</v>
+        <v>49.54109810277083</v>
       </c>
       <c r="M167">
-        <v>45.33462305976489</v>
-      </c>
-    </row>
-    <row r="168" spans="1:14">
+        <v>52.68797533884098</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
       <c r="A168" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B168">
-        <v>6.475088596343994</v>
+        <v>6.872966766357422</v>
       </c>
       <c r="C168">
-        <v>6.532093048095703</v>
+        <v>6.872966766357422</v>
       </c>
       <c r="D168">
-        <v>6.380398273468018</v>
+        <v>6.672514915466309</v>
       </c>
       <c r="E168">
-        <v>6.416301250457764</v>
+        <v>6.759756565093994</v>
       </c>
       <c r="F168">
-        <v>0</v>
+        <v>9709904</v>
       </c>
       <c r="G168">
-        <v>6.496399291441972</v>
+        <v>6.847586102910873</v>
       </c>
       <c r="H168">
-        <v>6.491840529441833</v>
+        <v>6.871304368972778</v>
       </c>
       <c r="I168">
-        <v>6.619068559010824</v>
+        <v>6.80245238939921</v>
       </c>
       <c r="J168">
-        <v>7.415290594450582</v>
+        <v>7.101186144918465</v>
       </c>
       <c r="L168">
-        <v>47.63948184097645</v>
+        <v>40.80168574154087</v>
       </c>
       <c r="M168">
-        <v>43.05457491207711</v>
-      </c>
-    </row>
-    <row r="169" spans="1:14">
+        <v>46.59777806949486</v>
+      </c>
+    </row>
+    <row r="169" spans="1:13">
       <c r="A169" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B169">
-        <v>6.417064666748047</v>
+        <v>6.759227275848389</v>
       </c>
       <c r="C169">
-        <v>6.441590309143066</v>
+        <v>6.785003662109375</v>
       </c>
       <c r="D169">
-        <v>6.310900688171387</v>
+        <v>6.640191555023193</v>
       </c>
       <c r="E169">
-        <v>6.336695194244385</v>
+        <v>6.785003662109375</v>
       </c>
       <c r="F169">
-        <v>86528</v>
+        <v>5948176</v>
       </c>
       <c r="G169">
-        <v>6.481880737151283</v>
+        <v>6.841896790110737</v>
       </c>
       <c r="H169">
-        <v>6.463832545280456</v>
+        <v>6.875456190109253</v>
       </c>
       <c r="I169">
-        <v>6.602136373519897</v>
+        <v>6.807866048812866</v>
       </c>
       <c r="J169">
-        <v>7.401004562659772</v>
+        <v>7.09699829746404</v>
       </c>
       <c r="L169">
-        <v>42.80677276591729</v>
+        <v>43.29539273644257</v>
       </c>
       <c r="M169">
-        <v>40.10739303451791</v>
-      </c>
-    </row>
-    <row r="170" spans="1:14">
+        <v>48.0312999887788</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
       <c r="A170" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B170">
-        <v>6.336599826812744</v>
+        <v>6.786108016967773</v>
       </c>
       <c r="C170">
-        <v>6.469721794128418</v>
+        <v>6.845979690551758</v>
       </c>
       <c r="D170">
-        <v>6.299429893493652</v>
+        <v>6.770679950714111</v>
       </c>
       <c r="E170">
-        <v>6.459625720977783</v>
+        <v>6.813607215881348</v>
       </c>
       <c r="F170">
-        <v>601024</v>
+        <v>2254240</v>
       </c>
       <c r="G170">
-        <v>6.479857553862782</v>
+        <v>6.839325010635338</v>
       </c>
       <c r="H170">
-        <v>6.442565870285034</v>
+        <v>6.879913568496704</v>
       </c>
       <c r="I170">
-        <v>6.588345066706339</v>
+        <v>6.812568871180217</v>
       </c>
       <c r="J170">
-        <v>7.388535968730209</v>
+        <v>7.093244773204667</v>
       </c>
       <c r="L170">
-        <v>51.37597990316024</v>
+        <v>46.18475801073168</v>
       </c>
       <c r="M170">
-        <v>46.22860290340617</v>
-      </c>
-    </row>
-    <row r="171" spans="1:14">
+        <v>49.67940179247998</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
       <c r="A171" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B171">
-        <v>6.45992374420166</v>
+        <v>6.813528060913086</v>
       </c>
       <c r="C171">
-        <v>6.480818271636963</v>
+        <v>6.816703319549561</v>
       </c>
       <c r="D171">
-        <v>6.423626899719238</v>
+        <v>6.602621078491211</v>
       </c>
       <c r="E171">
-        <v>6.473203659057617</v>
+        <v>6.656734943389893</v>
       </c>
       <c r="F171">
-        <v>0</v>
+        <v>7801936</v>
       </c>
       <c r="G171">
-        <v>6.47925265433504</v>
+        <v>6.822725913613024</v>
       </c>
       <c r="H171">
-        <v>6.421279120445251</v>
+        <v>6.880065202713013</v>
       </c>
       <c r="I171">
-        <v>6.576599327723185</v>
+        <v>6.812073787053426</v>
       </c>
       <c r="J171">
-        <v>7.376412361979579</v>
+        <v>7.087463186054803</v>
       </c>
       <c r="L171">
-        <v>52.26469456924203</v>
+        <v>35.1379029259281</v>
       </c>
       <c r="M171">
-        <v>46.8744449237272</v>
-      </c>
-    </row>
-    <row r="172" spans="1:14">
+        <v>41.84210059151864</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
       <c r="A172" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B172">
-        <v>6.473193645477295</v>
+        <v>6.655661106109619</v>
       </c>
       <c r="C172">
-        <v>6.524149417877197</v>
+        <v>6.680171012878418</v>
       </c>
       <c r="D172">
-        <v>6.408339023590088</v>
+        <v>6.557548522949219</v>
       </c>
       <c r="E172">
-        <v>6.504037857055664</v>
+        <v>6.66265869140625</v>
       </c>
       <c r="F172">
-        <v>160432</v>
+        <v>6731328</v>
       </c>
       <c r="G172">
-        <v>6.48150585458237</v>
+        <v>6.808174347957863</v>
       </c>
       <c r="H172">
-        <v>6.406068992614746</v>
+        <v>6.882779693603515</v>
       </c>
       <c r="I172">
-        <v>6.563003555933634</v>
+        <v>6.811183595657349</v>
       </c>
       <c r="J172">
-        <v>7.364857732775289</v>
+        <v>7.08183663645681</v>
       </c>
       <c r="L172">
-        <v>54.39421952022188</v>
+        <v>35.79034689180686</v>
       </c>
       <c r="M172">
-        <v>48.39040900442802</v>
-      </c>
-    </row>
-    <row r="173" spans="1:14">
+        <v>42.21282969460735</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
       <c r="A173" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B173">
-        <v>6.504629611968994</v>
+        <v>6.661219120025635</v>
       </c>
       <c r="C173">
-        <v>6.559727668762207</v>
+        <v>6.682077884674072</v>
       </c>
       <c r="D173">
-        <v>6.449331283569336</v>
+        <v>6.618063449859619</v>
       </c>
       <c r="E173">
-        <v>6.527341842651367</v>
+        <v>6.659435272216797</v>
       </c>
       <c r="F173">
-        <v>1922512</v>
+        <v>1922496</v>
       </c>
       <c r="G173">
-        <v>6.485672762588642</v>
+        <v>6.794652613799584</v>
       </c>
       <c r="H173">
-        <v>6.396144676208496</v>
+        <v>6.873972630500793</v>
       </c>
       <c r="I173">
-        <v>6.552181180318197</v>
+        <v>6.814389880498251</v>
       </c>
       <c r="J173">
-        <v>7.353764807078283</v>
+        <v>7.076241916400651</v>
       </c>
       <c r="L173">
-        <v>56.0608700662577</v>
+        <v>35.57130621162151</v>
       </c>
       <c r="M173">
-        <v>49.56186684649857</v>
-      </c>
-    </row>
-    <row r="174" spans="1:14">
+        <v>42.0557290277929</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
       <c r="A174" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B174">
-        <v>6.527685642242432</v>
+        <v>6.657370567321777</v>
       </c>
       <c r="C174">
-        <v>6.531595230102539</v>
+        <v>6.685084819793701</v>
       </c>
       <c r="D174">
-        <v>6.363040447235107</v>
+        <v>6.63309907913208</v>
       </c>
       <c r="E174">
-        <v>6.38723611831665</v>
+        <v>6.635663509368896</v>
       </c>
       <c r="F174">
-        <v>264480</v>
+        <v>0</v>
       </c>
       <c r="G174">
-        <v>6.476723976745733</v>
+        <v>6.780199058851339</v>
       </c>
       <c r="H174">
-        <v>6.379774308204651</v>
+        <v>6.85957281589508</v>
       </c>
       <c r="I174">
-        <v>6.536258586247762</v>
+        <v>6.813932148615519</v>
       </c>
       <c r="J174">
-        <v>7.340963102591375</v>
+        <v>7.070406440810827</v>
       </c>
       <c r="L174">
-        <v>44.95031830690552</v>
+        <v>33.85242531572245</v>
       </c>
       <c r="M174">
-        <v>43.21140904245983</v>
-      </c>
-    </row>
-    <row r="175" spans="1:14">
+        <v>40.8483669065801</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
       <c r="A175" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B175">
-        <v>6.386641502380371</v>
+        <v>6.635663509368896</v>
       </c>
       <c r="C175">
-        <v>6.498313903808594</v>
+        <v>6.776542186737061</v>
       </c>
       <c r="D175">
-        <v>6.353330135345459</v>
+        <v>6.632454872131348</v>
       </c>
       <c r="E175">
-        <v>6.448036193847656</v>
+        <v>6.742157459259033</v>
       </c>
       <c r="F175">
-        <v>1448128</v>
+        <v>2644416</v>
       </c>
       <c r="G175">
-        <v>6.474115996482271</v>
+        <v>6.776740731615675</v>
       </c>
       <c r="H175">
-        <v>6.372677063941955</v>
+        <v>6.855979800224304</v>
       </c>
       <c r="I175">
-        <v>6.522877979278564</v>
+        <v>6.815572849909464</v>
       </c>
       <c r="J175">
-        <v>7.329136256117948</v>
+        <v>7.066058772181003</v>
       </c>
       <c r="L175">
-        <v>49.80679676928654</v>
+        <v>46.80684086696522</v>
       </c>
       <c r="M175">
-        <v>46.41985121227204</v>
-      </c>
-    </row>
-    <row r="176" spans="1:14">
+        <v>48.04439742675739</v>
+      </c>
+    </row>
+    <row r="176" spans="1:13">
       <c r="A176" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B176">
-        <v>6.448469161987305</v>
+        <v>6.740843296051025</v>
       </c>
       <c r="C176">
-        <v>6.478504180908203</v>
+        <v>6.810061454772949</v>
       </c>
       <c r="D176">
-        <v>6.41700553894043</v>
+        <v>6.69611406326294</v>
       </c>
       <c r="E176">
-        <v>6.434487342834473</v>
+        <v>6.802742958068848</v>
       </c>
       <c r="F176">
-        <v>1209088</v>
+        <v>2696448</v>
       </c>
       <c r="G176">
-        <v>6.470513391605198</v>
+        <v>6.779104570384145</v>
       </c>
       <c r="H176">
-        <v>6.368542456626892</v>
+        <v>6.854708647727966</v>
       </c>
       <c r="I176">
-        <v>6.507418219248454</v>
+        <v>6.819471168518066</v>
       </c>
       <c r="J176">
-        <v>7.317286601637373</v>
+        <v>7.062571145504021</v>
       </c>
       <c r="L176">
-        <v>48.72907733608948</v>
+        <v>52.73160456645888</v>
       </c>
       <c r="M176">
-        <v>45.79888064191377</v>
+        <v>51.64824902455747</v>
       </c>
     </row>
     <row r="177" spans="1:13">
@@ -7055,37 +7040,37 @@
         <v>189</v>
       </c>
       <c r="B177">
-        <v>6.433969497680664</v>
+        <v>6.802498340606689</v>
       </c>
       <c r="C177">
-        <v>6.478225231170654</v>
+        <v>6.802869319915772</v>
       </c>
       <c r="D177">
-        <v>6.367602825164795</v>
+        <v>6.76211404800415</v>
       </c>
       <c r="E177">
-        <v>6.443945407867432</v>
+        <v>6.789921760559082</v>
       </c>
       <c r="F177">
-        <v>2409216</v>
+        <v>0</v>
       </c>
       <c r="G177">
-        <v>6.46809812035631</v>
+        <v>6.780087951309139</v>
       </c>
       <c r="H177">
-        <v>6.37259361743927</v>
+        <v>6.853168678283692</v>
       </c>
       <c r="I177">
-        <v>6.491671387354533</v>
+        <v>6.823454634348551</v>
       </c>
       <c r="J177">
-        <v>7.305719168607308</v>
+        <v>7.0589598953723</v>
       </c>
       <c r="L177">
-        <v>49.58576523589771</v>
+        <v>51.36943105486372</v>
       </c>
       <c r="M177">
-        <v>46.33853330542932</v>
+        <v>50.84449522489576</v>
       </c>
     </row>
     <row r="178" spans="1:13">
@@ -7093,37 +7078,37 @@
         <v>190</v>
       </c>
       <c r="B178">
-        <v>6.444109439849854</v>
+        <v>6.790940284729004</v>
       </c>
       <c r="C178">
-        <v>6.453217029571533</v>
+        <v>6.832256317138672</v>
       </c>
       <c r="D178">
-        <v>6.365406036376953</v>
+        <v>6.773897647857666</v>
       </c>
       <c r="E178">
-        <v>6.372050285339356</v>
+        <v>6.799566745758057</v>
       </c>
       <c r="F178">
-        <v>14464</v>
+        <v>669968</v>
       </c>
       <c r="G178">
-        <v>6.459366498991132</v>
+        <v>6.781858750804495</v>
       </c>
       <c r="H178">
-        <v>6.374764513969422</v>
+        <v>6.837735724449158</v>
       </c>
       <c r="I178">
-        <v>6.474115673700968</v>
+        <v>6.825785986582438</v>
       </c>
       <c r="J178">
-        <v>7.293352693332236</v>
+        <v>7.055524224516482</v>
       </c>
       <c r="L178">
-        <v>43.38630573935874</v>
+        <v>52.40984006824331</v>
       </c>
       <c r="M178">
-        <v>42.84631517235249</v>
+        <v>51.45650190640942</v>
       </c>
     </row>
     <row r="179" spans="1:13">
@@ -7131,37 +7116,37 @@
         <v>191</v>
       </c>
       <c r="B179">
-        <v>6.371800422668457</v>
+        <v>6.799354553222656</v>
       </c>
       <c r="C179">
-        <v>6.602009773254395</v>
+        <v>6.871602058410645</v>
       </c>
       <c r="D179">
-        <v>6.369965076446533</v>
+        <v>6.773137092590332</v>
       </c>
       <c r="E179">
-        <v>6.60065507888794</v>
+        <v>6.867935180664063</v>
       </c>
       <c r="F179">
-        <v>13646960</v>
+        <v>1410400</v>
       </c>
       <c r="G179">
-        <v>6.472210915345388</v>
+        <v>6.789683880791729</v>
       </c>
       <c r="H179">
-        <v>6.383674240112304</v>
+        <v>6.829543614387513</v>
       </c>
       <c r="I179">
-        <v>6.464242347081503</v>
+        <v>6.83131825129191</v>
       </c>
       <c r="J179">
-        <v>7.284177890491915</v>
+        <v>7.053039601419099</v>
       </c>
       <c r="L179">
-        <v>60.88146265425861</v>
+        <v>59.34580264976402</v>
       </c>
       <c r="M179">
-        <v>54.57017744711034</v>
+        <v>55.66980233119978</v>
       </c>
     </row>
     <row r="180" spans="1:13">
@@ -7169,37 +7154,37 @@
         <v>192</v>
       </c>
       <c r="B180">
-        <v>6.600201606750488</v>
+        <v>6.867983818054199</v>
       </c>
       <c r="C180">
-        <v>6.623045444488525</v>
+        <v>6.941019535064697</v>
       </c>
       <c r="D180">
-        <v>6.517629146575928</v>
+        <v>6.853579521179199</v>
       </c>
       <c r="E180">
-        <v>6.622593879699707</v>
+        <v>6.89970874786377</v>
       </c>
       <c r="F180">
-        <v>6470640</v>
+        <v>10822544</v>
       </c>
       <c r="G180">
-        <v>6.485882093923053</v>
+        <v>6.799686141434641</v>
       </c>
       <c r="H180">
-        <v>6.399992442131042</v>
+        <v>6.823590421676636</v>
       </c>
       <c r="I180">
-        <v>6.455496835708618</v>
+        <v>6.837159887949626</v>
       </c>
       <c r="J180">
-        <v>7.275415188362216</v>
+        <v>7.051008729186579</v>
       </c>
       <c r="L180">
-        <v>62.14446965139683</v>
+        <v>62.22429460404547</v>
       </c>
       <c r="M180">
-        <v>55.5133016353504</v>
+        <v>57.51532213035374</v>
       </c>
     </row>
     <row r="181" spans="1:13">
@@ -7207,37 +7192,37 @@
         <v>193</v>
       </c>
       <c r="B181">
-        <v>6.622463226318359</v>
+        <v>6.89990234375</v>
       </c>
       <c r="C181">
-        <v>6.720437526702881</v>
+        <v>6.992385864257812</v>
       </c>
       <c r="D181">
-        <v>6.621045112609863</v>
+        <v>6.77365255355835</v>
       </c>
       <c r="E181">
-        <v>6.67252254486084</v>
+        <v>6.991937160491943</v>
       </c>
       <c r="F181">
-        <v>15096112</v>
+        <v>12161264</v>
       </c>
       <c r="G181">
-        <v>6.502849407644669</v>
+        <v>6.817163506803487</v>
       </c>
       <c r="H181">
-        <v>6.429550313949585</v>
+        <v>6.821798968315124</v>
       </c>
       <c r="I181">
-        <v>6.447949632008871</v>
+        <v>6.8484343846639</v>
       </c>
       <c r="J181">
-        <v>7.267429855335709</v>
+        <v>7.050226324303207</v>
       </c>
       <c r="L181">
-        <v>65.03480783768575</v>
+        <v>69.31828426985108</v>
       </c>
       <c r="M181">
-        <v>57.66720653523791</v>
+        <v>62.40751447650401</v>
       </c>
     </row>
     <row r="182" spans="1:13">
@@ -7245,37 +7230,37 @@
         <v>194</v>
       </c>
       <c r="B182">
-        <v>6.67320728302002</v>
+        <v>6.992058277130127</v>
       </c>
       <c r="C182">
-        <v>6.723201274871826</v>
+        <v>6.996561050415039</v>
       </c>
       <c r="D182">
-        <v>6.643692970275879</v>
+        <v>6.971610069274902</v>
       </c>
       <c r="E182">
-        <v>6.656952857971191</v>
+        <v>6.971610069274902</v>
       </c>
       <c r="F182">
-        <v>4615664</v>
+        <v>863904</v>
       </c>
       <c r="G182">
-        <v>6.516858812219808</v>
+        <v>6.831204103391797</v>
       </c>
       <c r="H182">
-        <v>6.451990008354187</v>
+        <v>6.817834496498108</v>
       </c>
       <c r="I182">
-        <v>6.442906713485717</v>
+        <v>6.860542424519857</v>
       </c>
       <c r="J182">
-        <v>7.259344067291146</v>
+        <v>7.04918504940217</v>
       </c>
       <c r="L182">
-        <v>63.33825318920584</v>
+        <v>66.23422000242644</v>
       </c>
       <c r="M182">
-        <v>56.74456034809683</v>
+        <v>60.74719147808078</v>
       </c>
     </row>
   </sheetData>
